--- a/Scrapping_test/rezume.xlsx
+++ b/Scrapping_test/rezume.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,22 +397,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t>Senior ML/AI Research Scientist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hashtag SPORT </t>
+          <t>Podcastle AI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t>Senior ML/AI Research Scientist</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -424,12 +424,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ցերեկային կենտրոնի համակարգող, հոգեբան,լոգոպեդ</t>
+          <t>Mid UI/UX Designer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>World Vision Armenia</t>
+          <t>Podcastle AI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -439,7 +439,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ցերեկային կենտրոնի համակարգող, հոգեբան,լոգոպեդ</t>
+          <t>Mid UI/UX Designer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -451,12 +461,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Armenian Transcriptionists</t>
+          <t>Senior Product Designer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Audio Bee</t>
+          <t>TalkDesk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -466,7 +476,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Armenian Transcriptionists</t>
+          <t>Senior Product Designer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Դոկտոր</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -478,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Administrative Officer</t>
+          <t xml:space="preserve">ICITAP Administrative Advisor </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>World Vision Armenia</t>
+          <t>PAE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -493,7 +513,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Administrative Officer</t>
+          <t xml:space="preserve">ICITAP Administrative Advisor </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -505,12 +525,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sponsorship Assistant</t>
+          <t>Senior .Net Developer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>World Vision Armenia</t>
+          <t>Veritas Technologies</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -520,7 +540,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sponsorship Assistant</t>
+          <t>Senior .Net Developer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -532,27 +552,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Time production</t>
+          <t>TransPerfect</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -564,12 +579,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ծրագրերի Ղեկավար</t>
+          <t>Համակարգչային օպերատոր</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Հայ Կամավորների Բանկ / Armenian Volunteers Bank</t>
+          <t>Migtelecom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -579,17 +594,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ծրագրերի Ղեկավար</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Համակարգչային օպերատոր</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -601,12 +606,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mid/Senior Ruby on Rails</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WICASTR</t>
+          <t>NUR Supermarket</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -616,17 +621,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mid/Senior Ruby on Rails</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -638,32 +633,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roche  </t>
+          <t xml:space="preserve">Hashtag SPORT </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -675,12 +660,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Չափագրող Կոնստրուկտոր, Արտադրության Ղեկավար</t>
+          <t>Ավտոլվացող</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meta Wood</t>
+          <t xml:space="preserve">Ավանգարդ Մոթորս ՍՊԸ </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -690,24 +675,34 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Չափագրող Կոնստրուկտոր, Արտադրության Ղեկավար</t>
+          <t>Ավտոլվացող</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>DATA ANALYST / SCIENTIST</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mnatany</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -717,7 +712,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>DATA ANALYST / SCIENTIST</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -729,12 +724,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WordPress ծրագրավորող</t>
+          <t>SAS Programmer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Future Systems</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -744,34 +739,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>WordPress ծրագրավորող</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t>SAS Programmer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>200.000-350.000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
+          <t>Email Marketing Specialist</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TIARA</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -781,12 +766,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>Email Marketing Specialist</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -798,12 +778,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senior Advisor</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAIC</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -813,7 +793,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Senior Advisor</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -825,12 +805,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Freelance Software Engineer</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PubNative</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -840,7 +820,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Freelance Software Engineer</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -852,12 +832,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Operario De Producción | consumo masivo</t>
+          <t>Վարսահարդար և կոսմետոլոգ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LISTOS</t>
+          <t xml:space="preserve">Ada Beauty Salon </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -867,7 +847,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Operario De Producción | consumo masivo</t>
+          <t>Վարսահարդար և կոսմետոլոգ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -879,12 +859,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Promotores/Promotoras</t>
+          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALQUIMIA BTL</t>
+          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -894,7 +874,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Promotores/Promotoras</t>
+          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ղեկավար</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -906,22 +896,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Quality Control Inspector</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>QIMA</t>
+          <t>Tawouk</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quality Control Inspector</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -933,12 +923,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Պատվերների ձևակերպման մասնագետ</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Life Song</t>
+          <t>Media Group</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -948,7 +938,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Պատվերների ձևակերպման մասնագետ</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -963,19 +953,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>սկսած 150000 դրամից</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Logistics Coordinator</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>US based Company</t>
+          <t xml:space="preserve">Օգոստոս Սրճարան </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -985,17 +975,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Logistics Coordinator</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1007,12 +987,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Տնօրեն</t>
+          <t>Մատնահարդար և դիմահարդար</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ՀՀ Աշխատանքի և Սոցիալական հարցերի Նախարարություն</t>
+          <t xml:space="preserve">Loudos Cosmetic </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1022,7 +1002,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Տնօրեն</t>
+          <t>Մատնահարդար և դիմահարդար</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1034,39 +1014,49 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
+          <t>Ինժեներ-նախագծող</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Կամավորի էջ</t>
+          <t>Ար և Ար Դիզայն Քնսթրաքշն ՍՊԸ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
+          <t>Ինժեներ-նախագծող</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Հարցազրույցի ընթացքում կտեղեկանան</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Customer Support Specialist - English</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TT-Soft</t>
+          <t>All Eyes On Me</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1076,17 +1066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Customer Support Specialist - English</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1098,27 +1078,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Supervision Team Leader</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t xml:space="preserve">R.A.T.A. Dent </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Supervision Team Leader</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>&gt; 10</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1130,27 +1105,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Senior Quality Assurance Engineer</t>
+          <t>Ինտերիերի Դիզայներ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>Style Studio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Senior Quality Assurance Engineer</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5 - 10</t>
+          <t>Ինտերիերի Դիզայներ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1162,22 +1132,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Resident Supervisors</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>MEVL Accounting</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Resident Supervisors</t>
+          <t>Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5 - 10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1189,22 +1169,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Environment, Social, Health and Safety Expert</t>
+          <t>Logistics Assistant</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Environment, Social, Health and Safety Expert</t>
+          <t>Logistics Assistant</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Դոկտոր</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1216,81 +1206,96 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Senior Highway Engineer</t>
+          <t>Ճարտարապետ-դիզայներ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>ԿՈՄՖՈՐՏ Ռ ԵՎ Վ ՍՊԸ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Senior Highway Engineer</t>
+          <t>Ճարտարապետ-դիզայներ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200000</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Կամավորական աշխատանք</t>
+          <t>Բանվոր-վարորդ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ekelem_world is mine</t>
+          <t>ԿՈՄՖՈՐՏ Ռ ԵՎ Վ ՍՊԸ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ստաժավորում</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Կամավորական աշխատանք</t>
+          <t>Բանվոր-վարորդ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>170000-200000</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ծրագրի մենեջեր</t>
+          <t>Բժիշկ-ստոմատոլոգ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Կամավորի էջ</t>
+          <t>Rav Dent Dental Clinic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ծրագրի մենեջեր</t>
+          <t>Բժիշկ-ստոմատոլոգ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1302,12 +1307,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Machine Learning Lead Engineer</t>
+          <t>Ճարտարապետ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Concept Design LLC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1317,7 +1322,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Machine Learning Lead Engineer</t>
+          <t>Ճարտարապետ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1329,12 +1334,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Վարորդ</t>
+          <t>Logistics Manager</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ՀՀ Առողջապահության Նախարարություն</t>
+          <t>Sati Trans</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1344,7 +1349,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Վարորդ</t>
+          <t>Logistics Manager</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1356,12 +1361,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
+          <t>Software Engineer, Back-End (Node.js)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ՆՈՐՔ ԻՆՖԵԿՑԻՈՆ ԿԼԻՆԻԿԱԿԱՆ ՀԻՎԱՆԴԱՆՈՑ</t>
+          <t>Hexometer</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1371,7 +1376,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
+          <t>Software Engineer, Back-End (Node.js)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1383,12 +1398,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Account Lead</t>
+          <t>Mid/Senior React.JS Developer</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Takeda</t>
+          <t>Hexometer</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1398,7 +1413,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Account Lead</t>
+          <t>Mid/Senior React.JS Developer</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1410,22 +1435,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման / վաճառքի թիմի ղեկավար</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Innosoft</t>
+          <t>Time production</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման / վաճառքի թիմի ղեկավար</t>
+          <t>Վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1437,22 +1467,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Ծրագրերի Ղեկավար</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ՀՀ Առողջապահության Նախարարություն</t>
+          <t>Հայ Կամավորների Բանկ / Armenian Volunteers Bank</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Ծրագրերի Ղեկավար</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1464,12 +1504,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Staff EDA Software Development Engineer</t>
+          <t>Mid/Senior Ruby on Rails</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Xilinx Inc.</t>
+          <t>WICASTR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1479,17 +1519,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Staff EDA Software Development Engineer</t>
+          <t>Mid/Senior Ruby on Rails</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1501,12 +1541,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Xilinx Inc.</t>
+          <t xml:space="preserve">Roche  </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1516,17 +1556,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1538,12 +1578,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Principal EDA Software Development Engineer</t>
+          <t>Չափագրող Կոնստրուկտոր, Արտադրության Ղեկավար</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Xilinx Inc.</t>
+          <t>Meta Wood</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1553,17 +1593,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Principal EDA Software Development Engineer</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
+          <t>Չափագրող Կոնստրուկտոր, Արտադրության Ղեկավար</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1575,12 +1605,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Հայաստանի Հանրապետության տնտեսական մրցակցության պաշտպանության պետական հանձնաժողով</t>
+          <t>Mnatany</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1590,17 +1620,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1612,12 +1632,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ճարտարապետ</t>
+          <t>WordPress ծրագրավորող</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A41 Studio</t>
+          <t>Future Systems</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1627,34 +1647,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ճարտարապետ</t>
+          <t>WordPress ծրագրավորող</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200.000-350.000</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
+          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կազմակերպություն </t>
+          <t>TIARA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1664,17 +1684,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1686,12 +1701,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Կառավարիչ /ծառայություններ և սպասարկում/</t>
+          <t>Senior Advisor</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>SAIC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1701,12 +1716,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Կառավարիչ /ծառայություններ և սպասարկում/</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Senior Advisor</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1718,12 +1728,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ռեստորանային համալիրի մենեջեր</t>
+          <t>Freelance Software Engineer</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>PubNative</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1733,12 +1743,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ռեստորանային համալիրի մենեջեր</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Freelance Software Engineer</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1750,12 +1755,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Սննդի բաժնի հաշվապահ</t>
+          <t>Operario De Producción | consumo masivo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>LISTOS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1765,12 +1770,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Սննդի բաժնի հաշվապահ</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Operario De Producción | consumo masivo</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Lead Test Automation Engineer</t>
+          <t>Promotores/Promotoras</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>ALQUIMIA BTL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1797,17 +1797,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Lead Test Automation Engineer</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Promotores/Promotoras</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1819,32 +1809,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Senior Test Automation Engineers</t>
+          <t>Quality Control Inspector</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>QIMA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Senior Test Automation Engineers</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Quality Control Inspector</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1856,12 +1836,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
+          <t>Պատվերների ձևակերպման մասնագետ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>Life Song</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1871,12 +1851,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
+          <t>Պատվերների ձևակերպման մասնագետ</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1886,19 +1866,19 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>սկսած 150000 դրամից</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Լոգիստ-Մենեջեր</t>
+          <t>Logistics Coordinator</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>US based Company</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1908,34 +1888,34 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Լոգիստ-Մենեջեր</t>
+          <t>Logistics Coordinator</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Oպերատոր /1C ծրագրի իմացություն</t>
+          <t>Տնօրեն</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>ՀՀ Աշխատանքի և Սոցիալական հարցերի Նախարարություն</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1945,54 +1925,34 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Oպերատոր /1C ծրագրի իմացություն</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Միջնակարգ</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Տնօրեն</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Software QA Engineers</t>
+          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Codereadr Armenia</t>
+          <t>Կամավորի էջ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Software QA Engineers</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2004,12 +1964,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Customer Support Specialist - English</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Կոնցեպտում ՓԲԸ</t>
+          <t>TT-Soft</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2019,49 +1979,49 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Customer Support Specialist - English</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մատուցող/Մատուցողուհի </t>
+          <t>Supervision Team Leader</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Օգոստոս Սրճարան </t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մատուցող/Մատուցողուհի </t>
+          <t>Supervision Team Leader</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t>&gt; 10</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2073,12 +2033,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
+          <t>Senior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Լեզուների ուսուցման կենտրոն</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2088,17 +2048,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Senior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2110,32 +2065,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
+          <t>Resident Supervisors</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Standard Oil LLC</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Resident Supervisors</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2147,22 +2092,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Վաճառողուհի</t>
+          <t>Environment, Social, Health and Safety Expert</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>«Սլադո ֆուդ» ՍՊԸ</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Վաճառողուհի</t>
+          <t>Environment, Social, Health and Safety Expert</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2174,22 +2119,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intern (Technical-Engineering)</t>
+          <t>Senior Highway Engineer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Synopsys</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ստաժավորում</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Intern (Technical-Engineering)</t>
+          <t>Senior Highway Engineer</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2201,22 +2151,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Կամավորական աշխատանք</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>La Republica De La Felicidad</t>
+          <t>Ekelem_world is mine</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Ստաժավորում</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Կամավորական աշխատանք</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2228,32 +2178,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Բժիշկ և բուժքույր</t>
+          <t>Ծրագրի մենեջեր</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>L&amp;G Dental Clinic</t>
+          <t>Կամավորի էջ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Բժիշկ և բուժքույր</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Ծրագրի մենեջեր</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2265,12 +2205,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Amazon Supplier Relationship Specialist</t>
+          <t>Machine Learning Lead Engineer</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Khachaturov Group</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2280,7 +2220,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Amazon Supplier Relationship Specialist</t>
+          <t>Machine Learning Lead Engineer</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2292,12 +2232,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Վարորդ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Թաքս Այդիա ՍՊԸ</t>
+          <t>ՀՀ Առողջապահության Նախարարություն</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2307,17 +2247,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վարորդ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2329,12 +2259,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Արտագնա տուր մենեջեր</t>
+          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Davinchi Travel</t>
+          <t>ՆՈՐՔ ԻՆՖԵԿՑԻՈՆ ԿԼԻՆԻԿԱԿԱՆ ՀԻՎԱՆԴԱՆՈՑ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2344,34 +2274,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Արտագնա տուր մենեջեր</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>200000 դր․</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
+          <t>Account Lead</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Davinchi Travel</t>
+          <t>Takeda</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2381,34 +2301,24 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Account Lead</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Experienced Online Marketing Specialists</t>
+          <t>Հաճախորդների սպասարկման / Վաճառքի թիմի ղեկավար</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Khachaturov Group</t>
+          <t>Innosoft</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2418,17 +2328,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Experienced Online Marketing Specialists</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Հաճախորդների սպասարկման / Վաճառքի թիմի ղեկավար</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2440,32 +2340,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Մանկավարժ</t>
+          <t>Կամավորներ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Մեղուներ</t>
+          <t>ՀՀ Առողջապահության Նախարարություն</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Մանկավարժ</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Կամավորներ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2477,12 +2367,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ENGLISH SPEAKING CALL AGENT</t>
+          <t>Staff EDA Software Development Engineer</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Armada Armenia</t>
+          <t>Xilinx Inc.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2492,7 +2382,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ENGLISH SPEAKING CALL AGENT</t>
+          <t>Staff EDA Software Development Engineer</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>5 - 10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2504,22 +2404,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jaher</t>
+          <t>Xilinx Inc.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2531,12 +2441,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Principal EDA Software Development Engineer</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Xilinx Inc.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2546,7 +2456,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Principal EDA Software Development Engineer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2558,12 +2478,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Խմբագիր</t>
+          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Enlight Studies</t>
+          <t>Հայաստանի Հանրապետության տնտեսական մրցակցության պաշտպանության պետական հանձնաժողով</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2573,7 +2493,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Խմբագիր</t>
+          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2585,12 +2515,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Ճարտարապետ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Green Lane</t>
+          <t>A41 Studio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2600,7 +2530,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Ճարտարապետ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2612,12 +2552,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Study for Success</t>
+          <t xml:space="preserve">Կազմակերպություն </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2627,7 +2567,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2639,12 +2589,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Photographer Volunteer</t>
+          <t>Կառավարիչ /ծառայություններ և սպասարկում/</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Today Art</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2654,7 +2604,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Photographer Volunteer</t>
+          <t>Կառավարիչ /ծառայություններ և սպասարկում/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2666,32 +2621,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NetSuite Ինժեներ (Remote possible)</t>
+          <t>Ռեստորանային համալիրի մենեջեր</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>WeDoTek LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NetSuite Ինժեներ (Remote possible)</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Դոկտոր</t>
+          <t>Ռեստորանային համալիրի մենեջեր</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2703,12 +2653,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Սննդի բաժնի հաշվապահ</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2718,17 +2668,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
+          <t>Սննդի բաժնի հաշվապահ</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2740,12 +2685,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SMM Specialist</t>
+          <t>Lead Test Automation Engineer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2755,12 +2700,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SMM Specialist</t>
+          <t>Lead Test Automation Engineer</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2777,12 +2722,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Senior Test Automation Engineers</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2792,7 +2737,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Senior Test Automation Engineers</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2814,12 +2759,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Native US Copywriter</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2829,7 +2774,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Native US Copywriter</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2851,12 +2796,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Լոգիստ-Մենեջեր</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ՋԻ ԹԻ Ըքաունթինգ</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2866,29 +2811,34 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Լոգիստ-Մենեջեր</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150000</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
+          <t>Oպերատոր /1C ծրագրի իմացություն</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Astom Family Dental Center</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2898,24 +2848,34 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
+          <t>Oպերատոր /1C ծրագրի իմացություն</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Միջնակարգ</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120000</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Agritourism Specialist</t>
+          <t>Software QA Engineers</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ACDI/VOCA</t>
+          <t>Codereadr Armenia</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2925,12 +2885,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Agritourism Specialist</t>
+          <t>Software QA Engineers</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2947,12 +2907,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Digital Security Specialist - Consultant</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Counterpart International Armenia</t>
+          <t>Կոնցեպտում ՓԲԸ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2962,12 +2922,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Digital Security Specialist - Consultant</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2977,29 +2937,39 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200000</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Account Director, Banking Application Sales CIS</t>
+          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Լեզուների ուսուցման կենտրոն</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Account Director, Banking Application Sales CIS</t>
+          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3011,12 +2981,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Նկարչուհի-դիզայներ</t>
+          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>YES Republic</t>
+          <t>Standard Oil LLC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3026,7 +2996,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Նկարչուհի-դիզայներ</t>
+          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3038,12 +3018,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Բժշկական ներկայացուցիչ</t>
+          <t>Վաճառողուհի</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Med Progress</t>
+          <t>«Սլադո ֆուդ» ՍՊԸ</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3053,17 +3033,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Բժշկական ներկայացուցիչ</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վաճառողուհի</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3075,22 +3045,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t>Intern (Technical-Engineering)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tendenza</t>
+          <t>Synopsys</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ստաժավորում</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t>Intern (Technical-Engineering)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3102,22 +3072,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Աշկա Մարկետ</t>
+          <t>La Republica De La Felicidad</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3129,22 +3099,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
+          <t>Բժիշկ և բուժքույր</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Armpack</t>
+          <t>L&amp;G Dental Clinic</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
+          <t>Բժիշկ և բուժքույր</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3154,7 +3124,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3166,12 +3136,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
+          <t>Amazon Supplier Relationship Specialist</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Var Holding</t>
+          <t>Khachaturov Group</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3181,17 +3151,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Amazon Supplier Relationship Specialist</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3203,12 +3163,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>World Vision Armenia</t>
+          <t>Թաքս Այդիա ՍՊԸ</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3218,12 +3178,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3240,12 +3200,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Կարի մասնագետներ</t>
+          <t>Արտագնա տուր մենեջեր</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N2005 denim</t>
+          <t>Davinchi Travel</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3255,7 +3215,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Կարի մասնագետներ</t>
+          <t>Արտագնա տուր մենեջեր</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3265,24 +3225,24 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200000 դր․</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Մատուցող/ուհիներ</t>
+          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Սինեմա Սթար</t>
+          <t>Davinchi Travel</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3292,24 +3252,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Մատուցող/ուհիներ</t>
+          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>100000+</t>
+          <t>200000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
+          <t>Experienced Online Marketing Specialists</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3324,7 +3289,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
+          <t>Experienced Online Marketing Specialists</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3346,12 +3311,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Արտագնա   Տուր Մենեջեր</t>
+          <t>Մանկավարժ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Big Ben Travel</t>
+          <t>Մեղուներ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3361,12 +3326,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Արտագնա   Տուր Մենեջեր</t>
+          <t>Մանկավարժ</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3383,12 +3348,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>ENGLISH SPEAKING CALL AGENT</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Free Students Forum</t>
+          <t>Armada Armenia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3398,17 +3363,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>ENGLISH SPEAKING CALL AGENT</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3420,22 +3375,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BD GROUP</t>
+          <t>Jaher</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3447,12 +3402,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Decor Store</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3462,17 +3417,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3484,12 +3429,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Վաճառող-մասնագետ</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BD GROUP</t>
+          <t>Green Lane</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3499,12 +3444,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Վաճառող-մասնագետ</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3516,12 +3456,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Laravel ծրագրավորող</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Future Systems</t>
+          <t>Study for Success</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3531,34 +3471,24 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Laravel ծրագրավորող</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>250.000 - 500.000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>International Marketing Specialist</t>
+          <t>Photographer Volunteer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>International Exports Acceleration Company - IEACO</t>
+          <t>Today Art</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3568,17 +3498,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>International Marketing Specialist</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Photographer Volunteer</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3590,27 +3510,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>NetSuite Ինժեներ (Remote possible)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IDEANCO</t>
+          <t>WeDoTek LLC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>NetSuite Ինժեներ (Remote possible)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Դոկտոր</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3627,12 +3547,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Միջազգային կապի մենեջեր</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Yot Networks</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3642,12 +3562,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Միջազգային կապի մենեջեր</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3664,12 +3584,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Վաճառող(ուհի)-խորհրդատու</t>
+          <t>SMM Specialist</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Տեպլոտեխնիկա</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3679,7 +3599,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Վաճառող(ուհի)-խորհրդատու</t>
+          <t>SMM Specialist</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3701,12 +3621,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ֆուտուրա ՍՊԸ</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3716,7 +3636,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3728,12 +3658,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Сервисный администратор</t>
+          <t>Native US Copywriter</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>IKO Group</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3743,12 +3673,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Сервисный администратор</t>
+          <t>Native US Copywriter</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3765,12 +3695,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Менеджер по продаже дорожно-строительной техники</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IKO Group</t>
+          <t>ՋԻ ԹԻ Ըքաունթինգ</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3780,17 +3710,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Менеджер по продаже дорожно-строительной техники</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3802,12 +3727,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Администратор продаж основного оборудования</t>
+          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IKO Group</t>
+          <t>Astom Family Dental Center</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3817,17 +3742,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Администратор продаж основного оборудования</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3839,32 +3754,32 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Export Manager&amp;Administrative Assistant</t>
+          <t>Digital Security Specialist - Consultant</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>«Գևորգյան գինու գործարան» ՍՊԸ</t>
+          <t>Counterpart International Armenia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Export Manager&amp;Administrative Assistant</t>
+          <t>Digital Security Specialist - Consultant</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -3876,12 +3791,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Agritourism Specialist</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Khachaturov Group</t>
+          <t>ACDI/VOCA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3891,7 +3806,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Agritourism Specialist</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3913,12 +3828,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Account Director, Banking Application Sales CIS</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Урарту Транс</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3928,17 +3843,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Менеджер</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Account Director, Banking Application Sales CIS</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -3950,12 +3855,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Տնտեսագետ</t>
+          <t>Նկարչուհի-դիզայներ</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C&amp;F CO LLC</t>
+          <t>YES Republic</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3965,7 +3870,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Տնտեսագետ</t>
+          <t>Նկարչուհի-դիզայներ</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3977,22 +3882,32 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
+          <t>Բժշկական ներկայացուցիչ</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Project Lab</t>
+          <t>Med Progress</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
+          <t>Բժշկական ներկայացուցիչ</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4004,12 +3919,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Վարորդ-Առաքիչ</t>
+          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C&amp;F CO LLC</t>
+          <t>Աշկա Մարկետ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4019,7 +3934,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Վարորդ-Առաքիչ</t>
+          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4031,22 +3946,32 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Aram Khachaturyan Museum</t>
+          <t>Armpack</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4058,12 +3983,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Հարցազրուցավար</t>
+          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>R-Insights Research and Consulting</t>
+          <t>Var Holding</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4073,17 +3998,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Հարցազրուցավար</t>
+          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4095,12 +4020,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Менеджер по продажам в Ереване</t>
+          <t>Կարի մասնագետներ</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>IMCOSCOM ARMENIA</t>
+          <t xml:space="preserve"> N2005 denim</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4110,17 +4035,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Менеджер по продажам в Ереване</t>
+          <t>Կարի մասնագետներ</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4132,12 +4057,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Региональный директор в Ереване</t>
+          <t>Մատուցող/ուհիներ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ABRA</t>
+          <t>Սինեմա Սթար</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4147,34 +4072,29 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Региональный директор в Ереване</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Մատուցող/ուհիներ</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>100000+</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXPERTS </t>
+          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">International Center for Human Development </t>
+          <t>Khachaturov Group</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4184,12 +4104,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXPERTS </t>
+          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4206,12 +4126,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Civic Tech Specialist</t>
+          <t>Արտագնա   Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Counterpart International Armenia</t>
+          <t>Big Ben Travel</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4221,12 +4141,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Civic Tech Specialist</t>
+          <t>Արտագնա   Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4243,12 +4163,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
+          <t>Free Students Forum</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4258,17 +4178,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4280,12 +4200,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
+          <t>BD GROUP</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4295,17 +4215,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4317,12 +4227,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Օդորակիչների մոնտաժող</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Telecom </t>
+          <t>Decor Store</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4332,7 +4242,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Օդորակիչների մոնտաժող</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4342,24 +4252,24 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>70000-150000 ռուբլի</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Հարցազրուցավարներ</t>
+          <t>Վաճառող-մասնագետ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>IPM Research Armenia</t>
+          <t>BD GROUP</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4369,17 +4279,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Հարցազրուցավարներ</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>Վաճառող-մասնագետ</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4391,12 +4296,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Մատուցող(ուհի)ներ</t>
+          <t>Laravel ծրագրավորող</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2nd Floor</t>
+          <t>Future Systems</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4406,34 +4311,34 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Մատուցող(ուհի)ներ</t>
+          <t>Laravel ծրագրավորող</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>250.000 - 500.000 AMD</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Տնօրենի օգնական</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ԱՁ Գարիկ Մուրադյան</t>
+          <t>IDEANCO</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4443,12 +4348,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Տնօրենի օգնական</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4465,12 +4370,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի Մասնագետ</t>
+          <t>International Marketing Specialist</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>T Sayuz Trans</t>
+          <t>International Exports Acceleration Company - IEACO</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4480,12 +4385,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի Մասնագետ</t>
+          <t>International Marketing Specialist</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4502,12 +4407,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Content Writer</t>
+          <t>Միջազգային կապի մենեջեր</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Wirestock</t>
+          <t>Yot Networks</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4517,7 +4422,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Content Writer</t>
+          <t>Միջազգային կապի մենեջեր</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4529,12 +4444,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Experienced React.js Developer – Remote</t>
+          <t>Վաճառող(ուհի)-խորհրդատու</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toptal </t>
+          <t>Տեպլոտեխնիկա</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4544,7 +4459,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Experienced React.js Developer – Remote</t>
+          <t>Վաճառող(ուհի)-խորհրդատու</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4566,12 +4481,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
+          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Armeconombank</t>
+          <t>Ֆուտուրա ՍՊԸ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4581,17 +4496,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4603,22 +4508,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1C Գործավար</t>
+          <t>Export Manager&amp;Administrative Assistant</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GAT Cutting LLC</t>
+          <t>«Գևորգյան գինու գործարան» ՍՊԸ</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1C Գործավար</t>
+          <t>Export Manager&amp;Administrative Assistant</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4628,7 +4533,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4640,12 +4545,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Internship in Germany</t>
+          <t>Сервисный администратор</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoberg Firmen </t>
+          <t>IKO Group</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4655,7 +4560,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Internship in Germany</t>
+          <t>Сервисный администратор</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4667,12 +4582,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական</t>
+          <t>Менеджер по продаже дорожно-строительной техники</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ֆորա ՍՊԸ</t>
+          <t>IKO Group</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4682,7 +4597,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական</t>
+          <t>Менеджер по продаже дорожно-строительной техники</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4694,12 +4619,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ավտովարձույթի գործակալ</t>
+          <t>Администратор продаж основного оборудования</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ֆորա ՍՊԸ</t>
+          <t>IKO Group</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4709,24 +4634,34 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Ավտովարձույթի գործակալ</t>
+          <t>Администратор продаж основного оборудования</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve">200000 </t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Voskevaz Wine Time</t>
+          <t>Khachaturov Group</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4736,12 +4671,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4758,69 +4693,59 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Գրասենյակային աշխատանք</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Եվրասիական Հոլդինգ</t>
+          <t>Урарту Транс</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Գրասենյակային աշխատանք</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
+          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Finlaw LLC</t>
+          <t>Project Lab</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4832,12 +4757,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Վաճառքի պատասխանատու, շուկայի զարգացման մասնագետ</t>
+          <t>Վարորդ-Առաքիչ</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PURATOS ARMENIA</t>
+          <t>C&amp;F CO LLC</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4847,34 +4772,24 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Վաճառքի պատասխանատու, շուկայի զարգացման մասնագետ</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Մենեջեր</t>
+          <t>Վարորդ-Առաքիչ</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>սկսած 150000</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Country Manager</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ABT Associates</t>
+          <t>Aram Khachaturyan Museum</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4884,17 +4799,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Country Manager</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4906,12 +4811,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Junior Project Manager</t>
+          <t>Հարցազրուցավար</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>R-Insights Research and Consulting</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4921,12 +4826,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Junior Project Manager</t>
+          <t>Հարցազրուցավար</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4943,12 +4848,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t xml:space="preserve">EXPERTS </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sense Branding</t>
+          <t xml:space="preserve">International Center for Human Development </t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4958,12 +4863,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t xml:space="preserve">EXPERTS </t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4980,12 +4885,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Օպերատոր և ցանցային մասնագետ</t>
+          <t>Civic Tech Specialist</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Real Time</t>
+          <t>Counterpart International Armenia</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4995,12 +4900,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Օպերատոր և ցանցային մասնագետ</t>
+          <t>Civic Tech Specialist</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5017,12 +4922,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Менеджер по продажам в Ереване</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NTIC</t>
+          <t>IMCOSCOM ARMENIA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5032,12 +4937,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Менеджер по продажам в Ереване</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5054,12 +4959,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Գանձապահ-վաճառողուհի</t>
+          <t>Региональный директор в Ереване</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MM RETAIL LLC</t>
+          <t>ABRA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5069,17 +4974,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Գանձապահ-վաճառողուհի</t>
+          <t>Региональный директор в Ереване</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5091,12 +4996,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի մասնագետ</t>
+          <t>Վարկային Մասնագետ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ARCATRANS</t>
+          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5106,17 +5011,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի մասնագետ</t>
+          <t>Վարկային Մասնագետ</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5128,12 +5033,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Օդորակիչների մոնտաժող</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Armenian Audiobooks</t>
+          <t xml:space="preserve">Telecom </t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5143,7 +5048,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Օդորակիչների մոնտաժող</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5153,24 +5058,24 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>70000-150000 ռուբլի</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Հարցազրուցավարներ</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Hostelandtours</t>
+          <t>IPM Research Armenia</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5180,12 +5085,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Հարցազրուցավարներ</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5202,12 +5107,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
+          <t>Մատուցող(ուհի)ներ</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Agoda</t>
+          <t>2nd Floor</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5217,17 +5122,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
+          <t>Մատուցող(ուհի)ներ</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5239,12 +5144,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Տնօրենի օգնական</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Bikeathon Armenia</t>
+          <t>ԱՁ Գարիկ Մուրադյան</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5254,12 +5159,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Տնօրենի օգնական</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5276,12 +5181,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Oպերատոր</t>
+          <t>Լոգիստիկայի Մասնագետ</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fiore by Mukuchyan </t>
+          <t>T Sayuz Trans</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5291,7 +5196,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Oպերատոր</t>
+          <t>Լոգիստիկայի Մասնագետ</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5313,12 +5218,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Carrier Account Manager</t>
+          <t>Experienced React.js Developer – Remote</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Trust Telecom</t>
+          <t xml:space="preserve">Toptal </t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5328,12 +5233,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Carrier Account Manager</t>
+          <t>Experienced React.js Developer – Remote</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5350,12 +5255,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Վարկային Մասնագետ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TeamViewer Armenia</t>
+          <t>Armeconombank</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5365,12 +5270,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Վարկային Մասնագետ</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5387,12 +5292,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>1C Գործավար</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Համահայկական Կամավորական Միություն</t>
+          <t>GAT Cutting LLC</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5402,12 +5307,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>1C Գործավար</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5424,12 +5329,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Operations Manager</t>
+          <t>Ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>Ֆորա ՍՊԸ</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5439,17 +5344,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Operations Manager</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5461,12 +5356,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>Ավտովարձույթի գործակալ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Compact Computer Services</t>
+          <t>Ֆորա ՍՊԸ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5476,34 +5371,24 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Ավտովարձույթի գործակալ</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">200000 </t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Complife</t>
+          <t>Voskevaz Wine Time</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5513,7 +5398,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5535,59 +5420,59 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Գրասենյակային աշխատանք</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>YotaGo</t>
+          <t>Եվրասիական Հոլդինգ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Գրասենյակային աշխատանք</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volunteers </t>
+          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Apaga</t>
+          <t>Finlaw LLC</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volunteers </t>
+          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5609,12 +5494,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Back-End Developer</t>
+          <t>Վաճառքի պատասխանատու, շուկայի զարգացման մասնագետ</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>YotaGo</t>
+          <t>PURATOS ARMENIA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5624,17 +5509,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Back-End Developer</t>
+          <t>Վաճառքի պատասխանատու, շուկայի զարգացման մասնագետ</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5646,12 +5531,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Country Manager</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>ABT Associates</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5661,12 +5546,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Country Manager</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5683,12 +5568,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Բանվոր(ուհիներ)</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Լ.Ա. ՊԼԱՍՏ</t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5698,12 +5583,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Բանվոր(ուհիներ)</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5720,12 +5605,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Օպերատոր գանձապահ</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Voske Vtak</t>
+          <t>Sense Branding</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5735,29 +5620,34 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Օպերատոր գանձապահ</t>
+          <t>Graphic Designer</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
+          <t>Օպերատոր և ցանցային մասնագետ</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ՊԻ ԿԱ ԷՖ ԱՈՒԴԻՏ ՍԵՐՎԻՍ ՍՊԸ</t>
+          <t>Real Time</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5767,34 +5657,34 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
+          <t>Օպերատոր և ցանցային մասնագետ</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ֆրանսերենի Մասնագետ</t>
+          <t>Mobile Developer</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Damaris AM LLC</t>
+          <t>NTIC</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5804,7 +5694,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ֆրանսերենի Մասնագետ</t>
+          <t>Mobile Developer</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5826,12 +5716,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Վաճառող-Գանձապահ</t>
+          <t>Գանձապահ-վաճառողուհի</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Blueberry սրճարան</t>
+          <t>MM RETAIL LLC</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5841,12 +5731,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Վաճառող-Գանձապահ</t>
+          <t>Գանձապահ-վաճառողուհի</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5856,19 +5746,19 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>100000&gt;</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Բժշկական Սարքավորումների Մասնագետ</t>
+          <t>Լոգիստիկայի մասնագետ</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Առողջապահության նախարարության «Առողջապահական ծրագրերի իրականացման գրասենյակ» պետական հիմնարկ</t>
+          <t>ARCATRANS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5878,12 +5768,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Բժշկական Սարքավորումների Մասնագետ</t>
+          <t>Լոգիստիկայի մասնագետ</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Դոկտոր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5893,34 +5783,39 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Փիրալյան ՍՊԸ</t>
+          <t>Armenian Audiobooks</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Կամավոր</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -5932,12 +5827,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Տպագրական սարքավորումների օպերատոր</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SUN AM Innovative Print Studio</t>
+          <t>Hostelandtours</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5947,7 +5842,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Տպագրական սարքավորումների օպերատոր</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5969,12 +5864,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
+          <t>Կամավորներ</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ресторан</t>
+          <t>Bikeathon Armenia</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5984,24 +5879,34 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
+          <t>Կամավորներ</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Արտագնա Տուր Մենեջեր</t>
+          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Էլ ընդ Այ Տուր</t>
+          <t>Agoda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6011,7 +5916,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Արտագնա Տուր Մենեջեր</t>
+          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6023,12 +5938,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
+          <t>Oպերատոր</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>IPRC</t>
+          <t xml:space="preserve">Fiore by Mukuchyan </t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6038,12 +5953,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
+          <t>Oպերատոր</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6060,12 +5975,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Carrier Account Manager</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>IPRC</t>
+          <t>Trust Telecom</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6075,7 +5990,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Carrier Account Manager</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6097,12 +6012,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Հոգեբան</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MADATYAN Centre of Psychology</t>
+          <t>TeamViewer Armenia</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6112,7 +6027,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Հոգեբան</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6122,7 +6037,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6134,12 +6049,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Operations Manager</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PricewaterhouseCoopers</t>
+          <t>Bolt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6149,12 +6064,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Operations Manager</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6171,12 +6086,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PHP and Javascript Developer</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Softberg Armenia</t>
+          <t>Համահայկական Կամավորական Միություն</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6186,12 +6101,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>PHP and Javascript Developer</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6208,12 +6123,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Մարքեթոլոգ</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Standard Oil</t>
+          <t>Compact Computer Services</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6223,12 +6138,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Մարքեթոլոգ</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6245,12 +6160,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Մարքեթինգի մասնագետ</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Made To Make LLC</t>
+          <t>Complife</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6260,17 +6175,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Մարքեթինգի մասնագետ</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6282,12 +6197,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Դիզայներ</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Print House.am</t>
+          <t>YotaGo</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6297,12 +6212,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Դիզայներ</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6312,29 +6227,29 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>150000 d8.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Գրաֆիկ Դիզայներ</t>
+          <t xml:space="preserve">Volunteers </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GMG DOORS</t>
+          <t>Apaga</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Գրաֆիկ Դիզայներ</t>
+          <t xml:space="preserve">Volunteers </t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6356,12 +6271,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Back-End Developer</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ellips GA</t>
+          <t>YotaGo</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6371,12 +6286,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Back-End Developer</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6393,12 +6308,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ellips GA</t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6408,7 +6323,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6430,12 +6345,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
+          <t>Բանվոր(ուհիներ)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ekey</t>
+          <t>Լ.Ա. ՊԼԱՍՏ</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6445,12 +6360,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
+          <t>Բանվոր(ուհիներ)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6467,12 +6382,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ԵԹԵՐԻ ԹՈՂԱՐԿԻՉ</t>
+          <t>Օպերատոր գանձապահ</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ՇԱՆԹ ՍՊԸ Հեռուստաընկերություն</t>
+          <t>Voske Vtak</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6482,86 +6397,81 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ԵԹԵՐԻ ԹՈՂԱՐԿԻՉ</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Օպերատոր գանձապահ</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>80000</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Creative Educational Technologies</t>
+          <t>ՊԻ ԿԱ ԷՖ ԱՈՒԴԻՏ ՍԵՐՎԻՍ ՍՊԸ</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Web &amp; Social Media Volunteer Internship</t>
+          <t>Ֆրանսերենի Մասնագետ</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Aleppo Compatriotic Charitable Organization - NGO</t>
+          <t>Damaris AM LLC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Web &amp; Social Media Volunteer Internship</t>
+          <t>Ֆրանսերենի Մասնագետ</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6578,12 +6488,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Բժշկական Սարքավորումների Մասնագետ</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Evolver</t>
+          <t>Առողջապահության նախարարության «Առողջապահական ծրագրերի իրականացման գրասենյակ» պետական հիմնարկ</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6593,12 +6503,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Բժշկական Սարքավորումների Մասնագետ</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Դոկտոր</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6608,39 +6518,34 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Prime Commercial</t>
+          <t>Փիրալյան ՍՊԸ</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Office Manager</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6652,12 +6557,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Տպագրական սարքավորումների օպերատոր</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>SUN AM Innovative Print Studio</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6667,7 +6572,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Տպագրական սարքավորումների օպերատոր</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6689,12 +6594,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Marketing Communications Manager</t>
+          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>YEA Engineering</t>
+          <t>Ресторан</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6704,34 +6609,24 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Marketing Communications Manager</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50000</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Արտագնա Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AGG Motors</t>
+          <t>Էլ ընդ Այ Տուր</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6741,17 +6636,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Արտագնա Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -6763,12 +6648,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Digital Pomegranate</t>
+          <t>IPRC</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6778,12 +6663,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6800,12 +6685,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Standard Oil</t>
+          <t>IPRC</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6815,12 +6700,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6837,12 +6722,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Արտադրության հաշվետար</t>
+          <t>Հոգեբան</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SPS Cigaronne LLC</t>
+          <t>MADATYAN Centre of Psychology</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6852,7 +6737,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Արտադրության հաշվետար</t>
+          <t>Հոգեբան</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6862,7 +6747,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -6874,12 +6759,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>PHP and Javascript Developer</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Panorama Lounge Bar&amp;Restaurant</t>
+          <t>Softberg Armenia</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6889,7 +6774,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>PHP and Javascript Developer</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6911,12 +6796,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Մարքեթոլոգ</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>King Travel</t>
+          <t>Standard Oil</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6926,12 +6811,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Մարքեթոլոգ</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6948,12 +6833,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Hardware Engineer</t>
+          <t>Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cisco Systems Armenia</t>
+          <t>Made To Make LLC</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6963,17 +6848,17 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Hardware Engineer</t>
+          <t>Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6985,12 +6870,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>Դիզայներ</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>WEB-STOLICA</t>
+          <t>Print House.am</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7000,12 +6885,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>Դիզայներ</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7015,19 +6900,19 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150000 d8.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>REACT JS DEVELOPER</t>
+          <t>Գրաֆիկ Դիզայներ</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>GMG DOORS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7037,7 +6922,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>REACT JS DEVELOPER</t>
+          <t>Գրաֆիկ Դիզայներ</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7059,12 +6944,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>UI/UX DESIGNER</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>Ellips GA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7074,7 +6959,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>UI/UX DESIGNER</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7096,12 +6981,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>YEA Engineering</t>
+          <t>Ellips GA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7111,12 +6996,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7133,12 +7018,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Աուդիտի Մասնագետ</t>
+          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Երևանի Քաղաքապետարան</t>
+          <t>Ekey</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7148,12 +7033,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Աուդիտի Մասնագետ</t>
+          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7170,12 +7055,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RIGGER/ROUSTABOUT</t>
+          <t>ԵԹԵՐԻ ԹՈՂԱՐԿԻՉ</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Horizon Offshore</t>
+          <t>ՇԱՆԹ ՍՊԸ Հեռուստաընկերություն</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7185,12 +7070,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RIGGER/ROUSTABOUT</t>
+          <t>ԵԹԵՐԻ ԹՈՂԱՐԿԻՉ</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7207,12 +7092,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PayVA</t>
+          <t>Creative Educational Technologies</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7222,7 +7107,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7244,22 +7129,22 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mentor Volunteers</t>
+          <t>Web &amp; Social Media Volunteer Internship</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CoderDojo Armenia</t>
+          <t>Aleppo Compatriotic Charitable Organization - NGO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Mentor Volunteers</t>
+          <t>Web &amp; Social Media Volunteer Internship</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7281,27 +7166,27 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Վաճառքի Մասնագետ</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Brainbit</t>
+          <t>Evolver</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Վաճառքի Մասնագետ</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7318,12 +7203,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>JavaScript Developer</t>
+          <t>Office Manager</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>LaravelSoft</t>
+          <t>Prime Commercial</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7333,12 +7218,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>JavaScript Developer</t>
+          <t>Office Manager</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7355,12 +7240,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Wordpress &amp; full stack (payment system support) developers</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Necasta</t>
+          <t>AGG Motors</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7370,12 +7255,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Wordpress &amp; full stack (payment system support) developers</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7392,12 +7277,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Ծրագրի կոորդինատոր</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>People in Need</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7407,12 +7292,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Ծրագրի կոորդինատոր</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7429,12 +7314,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Microservices Engineer</t>
+          <t>Marketing Communications Manager</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t>YEA Engineering</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7444,12 +7329,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Microservices Engineer</t>
+          <t>Marketing Communications Manager</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7466,12 +7351,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>QA Analyst</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t>King Travel</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7481,12 +7366,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>QA Analyst</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7503,12 +7388,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Junior Quality Assurance Engineer</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t>Panorama Lounge Bar&amp;Restaurant</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7518,12 +7403,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Junior Quality Assurance Engineer</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7540,12 +7425,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t>Digital Pomegranate</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7555,12 +7440,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7577,12 +7462,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Dan Travel</t>
+          <t>Standard Oil</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7592,7 +7477,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7614,27 +7499,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Translators</t>
+          <t>Արտադրության հաշվետար</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Finlaw LLC</t>
+          <t>SPS Cigaronne LLC</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Translators</t>
+          <t>Արտադրության հաշվետար</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7651,12 +7536,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Technical Assistant</t>
+          <t>Hardware Engineer</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>AYWA-Armenian Young Women's Association</t>
+          <t>Cisco Systems Armenia</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7666,12 +7551,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Technical Assistant</t>
+          <t>Hardware Engineer</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7688,12 +7573,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Slice Consulting</t>
+          <t>WEB-STOLICA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7703,7 +7588,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7725,12 +7610,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
+          <t>REACT JS DEVELOPER</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">IT Manager LLC </t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7740,17 +7625,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
+          <t>REACT JS DEVELOPER</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -7762,12 +7647,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Junior iOS Developer</t>
+          <t>UI/UX DESIGNER</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Gazan Apps</t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7777,7 +7662,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Junior iOS Developer</t>
+          <t>UI/UX DESIGNER</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7799,12 +7684,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Evolver</t>
+          <t>YEA Engineering</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7814,7 +7699,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7836,12 +7721,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
+          <t>RIGGER/ROUSTABOUT</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Gazzar Studio</t>
+          <t>Horizon Offshore</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7851,12 +7736,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
+          <t>RIGGER/ROUSTABOUT</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7873,12 +7758,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>JavaScript Developer</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Tumo Center for Creative Technologies</t>
+          <t>LaravelSoft</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7888,12 +7773,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>JavaScript Developer</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7910,22 +7795,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>International Sales Coordinator</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>HayPost</t>
+          <t>PayVA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>International Sales Coordinator</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7947,12 +7832,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
+          <t>Mentor Volunteers</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>GSoft</t>
+          <t>CoderDojo Armenia</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7962,7 +7847,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
+          <t>Mentor Volunteers</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7984,22 +7869,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Վաճառքի Մասնագետ</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Led Computers</t>
+          <t>Brainbit</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Վաճառքի Մասնագետ</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -8021,12 +7906,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Wordpress &amp; full stack (payment system support) developers</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Freeway Finance</t>
+          <t>Necasta</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8036,12 +7921,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Wordpress &amp; full stack (payment system support) developers</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8058,12 +7943,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Ծրագրի կոորդինատոր</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Go Travel </t>
+          <t>People in Need</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8073,12 +7958,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Ծրագրի կոորդինատոր</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -8095,12 +7980,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magento Programmer </t>
+          <t>Microservices Engineer</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Spaceplug</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8110,7 +7995,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magento Programmer </t>
+          <t>Microservices Engineer</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -8132,12 +8017,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Frontend Developer</t>
+          <t>QA Analyst</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Due-X</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8147,12 +8032,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Frontend Developer</t>
+          <t>QA Analyst</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8169,12 +8054,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>IOS Developer</t>
+          <t>Junior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Due-X</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8184,12 +8069,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>IOS Developer</t>
+          <t>Junior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8206,12 +8091,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Տուր Մենեջեր</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Travel&amp;Co.</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8221,12 +8106,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Տուր Մենեջեր</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8243,12 +8128,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ծրագրի ղեկավար</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Dan Travel</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8258,12 +8143,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Ծրագրի ղեկավար</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -8280,22 +8165,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>English Tutor</t>
+          <t>Translators</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>E-corner English School</t>
+          <t>Finlaw LLC</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>English Tutor</t>
+          <t>Translators</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -8317,12 +8202,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Technical Assistant</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Prima Finance</t>
+          <t>AYWA-Armenian Young Women's Association</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8332,7 +8217,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Technical Assistant</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -8354,12 +8239,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SENIOR QA AUTOMATION ENGINEER</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Slice Consulting</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8369,12 +8254,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>SENIOR QA AUTOMATION ENGINEER</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8391,12 +8276,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>FULL STACK DEVELOPER</t>
+          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t xml:space="preserve">IT Manager LLC </t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8406,17 +8291,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>FULL STACK DEVELOPER</t>
+          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8428,12 +8313,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SENIOR WEB ENGINEER</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Evolver</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8443,12 +8328,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>SENIOR WEB ENGINEER</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8465,12 +8350,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ENGLISH TEACHER</t>
+          <t>Junior iOS Developer</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Advance by Challenges</t>
+          <t>Gazan Apps</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8480,7 +8365,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>ENGLISH TEACHER</t>
+          <t>Junior iOS Developer</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8502,12 +8387,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Nanny</t>
+          <t>International Sales Coordinator</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eight Guardian Angels </t>
+          <t>HayPost</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8517,7 +8402,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Nanny</t>
+          <t>International Sales Coordinator</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8539,12 +8424,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>EXECUTIVE ASSISTANT</t>
+          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SEF INTERNATIONAL</t>
+          <t>Gazzar Studio</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8554,7 +8439,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>EXECUTIVE ASSISTANT</t>
+          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8576,12 +8461,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SEF INTERNATIONAL</t>
+          <t>Tumo Center for Creative Technologies</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8591,7 +8476,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8613,12 +8498,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
+          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SEF INTERNATIONAL</t>
+          <t>GSoft</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8628,7 +8513,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
+          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8650,12 +8535,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>iOS Developer</t>
+          <t>Frontend Developer</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Way4app</t>
+          <t>Due-X</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8665,12 +8550,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>iOS Developer</t>
+          <t>Frontend Developer</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8687,12 +8572,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>IOS Developer</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Web Solution</t>
+          <t>Due-X</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8702,7 +8587,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>IOS Developer</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8724,12 +8609,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>EXPRESSPRINT LLC</t>
+          <t>Led Computers</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8739,12 +8624,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8761,12 +8646,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Digital Storyteller</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Freeway Finance</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8776,7 +8661,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Digital Storyteller</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8798,12 +8683,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t xml:space="preserve">Go Travel </t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8813,12 +8698,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8835,12 +8720,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Influencer Marketing Specialist</t>
+          <t xml:space="preserve">Magento Programmer </t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Spaceplug</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8850,12 +8735,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Influencer Marketing Specialist</t>
+          <t xml:space="preserve">Magento Programmer </t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8872,12 +8757,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Travel&amp;Co.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8887,7 +8772,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8909,12 +8794,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Менеджер по продажам</t>
+          <t>Ծրագրի ղեկավար</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Computer Service LLC</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8924,12 +8809,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Менеджер по продажам</t>
+          <t>Ծրագրի ղեկավար</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8946,12 +8831,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Logistic-manager</t>
+          <t>English Tutor</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mira Trans</t>
+          <t>E-corner English School</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8961,7 +8846,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Logistic-manager</t>
+          <t>English Tutor</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8983,12 +8868,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ATM Programming</t>
+          <t>Prima Finance</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8998,7 +8883,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -9020,12 +8905,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Business Intelligence Analyst</t>
+          <t>SENIOR QA AUTOMATION ENGINEER</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SFL LLC</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9035,12 +8920,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Business Intelligence Analyst</t>
+          <t>SENIOR QA AUTOMATION ENGINEER</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -9057,12 +8942,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>FULL STACK DEVELOPER</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Baleni Art</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9072,12 +8957,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>FULL STACK DEVELOPER</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -9094,12 +8979,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Coreldraw, Photoshop Specialist</t>
+          <t>SENIOR WEB ENGINEER</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Baleni Art</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9109,7 +8994,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Coreldraw, Photoshop Specialist</t>
+          <t>SENIOR WEB ENGINEER</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -9131,12 +9016,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>ENGLISH TEACHER</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Digex IT</t>
+          <t>Advance by Challenges</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9146,7 +9031,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>ENGLISH TEACHER</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -9168,12 +9053,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Software Engineer/Management Applications Team</t>
+          <t>Nanny</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>BlueNet LLC</t>
+          <t xml:space="preserve">Eight Guardian Angels </t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9183,7 +9068,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Software Engineer/Management Applications Team</t>
+          <t>Nanny</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -9205,12 +9090,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Software Engineer/ Infrastructure System Team</t>
+          <t>EXECUTIVE ASSISTANT</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BlueNet LLC</t>
+          <t>SEF INTERNATIONAL</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9220,7 +9105,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Software Engineer/ Infrastructure System Team</t>
+          <t>EXECUTIVE ASSISTANT</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -9242,12 +9127,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Software Engineer/Session Initiation Protocol Team</t>
+          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BlueNet LLC</t>
+          <t>SEF INTERNATIONAL</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9257,7 +9142,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Software Engineer/Session Initiation Protocol Team</t>
+          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -9279,12 +9164,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառողուհի</t>
+          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SALI</t>
+          <t>SEF INTERNATIONAL</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9294,7 +9179,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառողուհի</t>
+          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -9316,12 +9201,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Learning and Development Manager</t>
+          <t>iOS Developer</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t>Way4app</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9331,12 +9216,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Learning and Development Manager</t>
+          <t>iOS Developer</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9353,12 +9238,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Tax Consultant</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PricewaterhouseCoopers</t>
+          <t>Web Solution</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9368,7 +9253,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Tax Consultant</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -9390,12 +9275,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
+          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Արաբկիր Վարչական Շրջան</t>
+          <t>EXPRESSPRINT LLC</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9405,12 +9290,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
+          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -9427,12 +9312,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
+          <t>Digital Storyteller</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Արաբկիր Վարչական Շրջան</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9442,7 +9327,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
+          <t>Digital Storyteller</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -9464,12 +9349,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9479,7 +9364,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -9501,12 +9386,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CONTENT MANAGER</t>
+          <t>Influencer Marketing Specialist</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9516,12 +9401,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>CONTENT MANAGER</t>
+          <t>Influencer Marketing Specialist</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9538,12 +9423,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PHP/Laravel Developer</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9553,12 +9438,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>PHP/Laravel Developer</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -9575,12 +9460,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YII2 DEVELOPER</t>
+          <t>Менеджер по продажам</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>Computer Service LLC</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9590,12 +9475,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YII2 DEVELOPER</t>
+          <t>Менеджер по продажам</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9612,12 +9497,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Frontend Developer / Angular 2+</t>
+          <t>Logistic-manager</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>Mira Trans</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9627,12 +9512,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Frontend Developer / Angular 2+</t>
+          <t>Logistic-manager</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -9649,12 +9534,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t>Web Programmer</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>ATM Programming</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9664,12 +9549,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t>Web Programmer</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9686,12 +9571,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>DATA SCIENTIST</t>
+          <t>Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>SFL LLC</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9701,7 +9586,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>DATA SCIENTIST</t>
+          <t>Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9723,12 +9608,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>JAVASCRIPT NINJA</t>
+          <t>Web Programmer</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>Digex IT</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9738,12 +9623,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>JAVASCRIPT NINJA</t>
+          <t>Web Programmer</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9760,12 +9645,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Node JS Ninja</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>Baleni Art</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9775,12 +9660,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Node JS Ninja</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9797,12 +9682,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>Coreldraw, Photoshop Specialist</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>Baleni Art</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9812,12 +9697,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>Coreldraw, Photoshop Specialist</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9834,12 +9719,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>IOS developer</t>
+          <t>Software Engineer/Management Applications Team</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>BlueNet LLC</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9849,12 +9734,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>IOS developer</t>
+          <t>Software Engineer/Management Applications Team</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9871,12 +9756,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Front-end developer</t>
+          <t>Software Engineer/ Infrastructure System Team</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>BlueNet LLC</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9886,12 +9771,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Front-end developer</t>
+          <t>Software Engineer/ Infrastructure System Team</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9908,12 +9793,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Node.js developer</t>
+          <t>Software Engineer/Session Initiation Protocol Team</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>BlueNet LLC</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9923,7 +9808,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Node.js developer</t>
+          <t>Software Engineer/Session Initiation Protocol Team</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9945,12 +9830,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Խորհրդատու-վաճառողուհի</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>SALI</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9960,7 +9845,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Խորհրդատու-վաճառողուհի</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9982,12 +9867,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Sr. DevOps Engineer</t>
+          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>Արաբկիր Վարչական Շրջան</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9997,12 +9882,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Sr. DevOps Engineer</t>
+          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -10019,12 +9904,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Sr. Java Software Developer</t>
+          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>Արաբկիր Վարչական Շրջան</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10034,12 +9919,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Sr. Java Software Developer</t>
+          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -10056,12 +9941,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Sr. iOS Engineer</t>
+          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10071,7 +9956,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Sr. iOS Engineer</t>
+          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -10093,12 +9978,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Sr. Android Network Engineer</t>
+          <t>CONTENT MANAGER</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10108,7 +9993,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Sr. Android Network Engineer</t>
+          <t>CONTENT MANAGER</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -10130,12 +10015,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Sr. Android Engineer - Team Lead</t>
+          <t>PHP/Laravel Developer</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10145,7 +10030,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Sr. Android Engineer - Team Lead</t>
+          <t>PHP/Laravel Developer</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -10167,12 +10052,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Manager/People Operations</t>
+          <t xml:space="preserve"> YII2 DEVELOPER</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10182,12 +10067,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Manager/People Operations</t>
+          <t xml:space="preserve"> YII2 DEVELOPER</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -10204,12 +10089,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Customer Agent (Farsi Speaking)</t>
+          <t>Frontend Developer / Angular 2+</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Rika Group UK LLC</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10219,12 +10104,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Customer Agent (Farsi Speaking)</t>
+          <t>Frontend Developer / Angular 2+</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -10241,12 +10126,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Office IT Specialist</t>
+          <t>Android Developer</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10256,12 +10141,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Office IT Specialist</t>
+          <t>Android Developer</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -10278,12 +10163,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> System Architect</t>
+          <t>DATA SCIENTIST</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10293,7 +10178,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> System Architect</t>
+          <t>DATA SCIENTIST</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -10315,12 +10200,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>QA Specialist</t>
+          <t>JAVASCRIPT NINJA</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10330,7 +10215,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>QA Specialist</t>
+          <t>JAVASCRIPT NINJA</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -10352,12 +10237,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Senior Java Developer</t>
+          <t>Node JS Ninja</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10367,17 +10252,17 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Senior Java Developer</t>
+          <t>Node JS Ninja</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10389,12 +10274,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Senior Frontend Developer</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10404,7 +10289,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Senior Frontend Developer</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -10414,7 +10299,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10426,12 +10311,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>JavaScript Developer</t>
+          <t>IOS developer</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10441,12 +10326,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>JavaScript Developer</t>
+          <t>IOS developer</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10463,12 +10348,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Front-end developer</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10478,12 +10363,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Front-end developer</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10500,12 +10385,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Java Developer</t>
+          <t>Node.js developer</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>IU Networks LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10515,17 +10400,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Java Developer</t>
+          <t>Node.js developer</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10537,12 +10422,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10552,12 +10437,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10574,12 +10459,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
+          <t>Sr. DevOps Engineer</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10589,12 +10474,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
+          <t>Sr. DevOps Engineer</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -10611,12 +10496,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ՍՄՄ մասնագետ</t>
+          <t>Sr. Java Software Developer</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>GAT Cutting LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10626,12 +10511,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>ՍՄՄ մասնագետ</t>
+          <t>Sr. Java Software Developer</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10648,12 +10533,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Գրաֆիկ դիզայներ</t>
+          <t>Sr. iOS Engineer</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>GAT Cutting LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10663,12 +10548,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Գրաֆիկ դիզայներ</t>
+          <t>Sr. iOS Engineer</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10685,12 +10570,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Գնումների մասնագետ</t>
+          <t>Sr. Android Network Engineer</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>GAT Cutting LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10700,12 +10585,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Գնումների մասնագետ</t>
+          <t>Sr. Android Network Engineer</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10722,12 +10607,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t>Sr. Android Engineer - Team Lead</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Daniam LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10737,12 +10622,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t>Sr. Android Engineer - Team Lead</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -10759,12 +10644,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>iOS Developer</t>
+          <t>Manager/People Operations</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Daniam LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10774,7 +10659,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>iOS Developer</t>
+          <t>Manager/People Operations</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -10796,12 +10681,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Senior J2EE Developer</t>
+          <t>Customer Agent (Farsi Speaking)</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Daniam LLC</t>
+          <t>Rika Group UK LLC</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10811,7 +10696,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Senior J2EE Developer</t>
+          <t>Customer Agent (Farsi Speaking)</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -10833,12 +10718,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Սպասարկող - Մենեջեր</t>
+          <t>Office IT Specialist</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>IMEX Group Co. LTD</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10848,7 +10733,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Սպասարկող - Մենեջեր</t>
+          <t>Office IT Specialist</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10870,12 +10755,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Առևտրային դիրքի Կառավարիչ</t>
+          <t xml:space="preserve"> System Architect</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>IMEX Group Co. LTD</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10885,12 +10770,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Առևտրային դիրքի Կառավարիչ</t>
+          <t xml:space="preserve"> System Architect</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10907,12 +10792,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>NodeJS Developer</t>
+          <t>QA Specialist</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10922,15 +10807,575 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>NodeJS Developer</t>
+          <t>QA Specialist</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Senior Java Developer</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>IU Networks LLC</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Senior Java Developer</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Senior Frontend Developer</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>IU Networks LLC</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Senior Frontend Developer</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>JavaScript Developer</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>IU Networks LLC</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>JavaScript Developer</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Database Administrator</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>IU Networks LLC</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Database Administrator</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>IU Networks LLC</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>GAT Soft LLC</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt; 1</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>GAT Soft LLC</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt; 1</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ՍՄՄ մասնագետ</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>GAT Cutting LLC</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>ՍՄՄ մասնագետ</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Գրաֆիկ դիզայներ</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>GAT Cutting LLC</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Գրաֆիկ դիզայներ</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Գնումների մասնագետ</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>GAT Cutting LLC</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Գնումների մասնագետ</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Android Developer</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Daniam LLC</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Android Developer</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>iOS Developer</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Daniam LLC</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>iOS Developer</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Senior J2EE Developer</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Daniam LLC</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Senior J2EE Developer</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Սպասարկող - Մենեջեր</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>IMEX Group Co. LTD</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Սպասարկող - Մենեջեր</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Առևտրային դիրքի Կառավարիչ</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>IMEX Group Co. LTD</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Առևտրային դիրքի Կառավարիչ</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/Scrapping_test/rezume.xlsx
+++ b/Scrapping_test/rezume.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,12 +397,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior ML/AI Research Scientist</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Podcastle AI</t>
+          <t>MobiTime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -412,7 +412,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Senior ML/AI Research Scientist</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -424,12 +424,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mid UI/UX Designer</t>
+          <t>Լայվ կազինո մենեջեր</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Podcastle AI</t>
+          <t>Էքսսոլ ՍՊԸ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mid UI/UX Designer</t>
+          <t>Լայվ կազինո մենեջեր</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -461,12 +461,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Product Designer</t>
+          <t>Խաղավար / Դիլեր</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TalkDesk</t>
+          <t>Էքսսոլ ՍՊԸ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -476,34 +476,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Senior Product Designer</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Դոկտոր</t>
+          <t>Խաղավար / Դիլեր</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200000 դր․</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICITAP Administrative Advisor </t>
+          <t>Մատուցող / Մատուցողուհի</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PAE</t>
+          <t>Pizza Hut Armenia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -513,7 +503,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICITAP Administrative Advisor </t>
+          <t>Մատուցող / Մատուցողուհի</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -525,12 +515,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior .Net Developer</t>
+          <t>Լոգիստ - Մենեջեր</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veritas Technologies</t>
+          <t>Урарту Транс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -540,7 +530,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Senior .Net Developer</t>
+          <t>Լոգիստ - Մենեջեր</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -552,12 +542,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Բուժքույր</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TransPerfect</t>
+          <t>Միրզոյան Ստոմատոլոգիական Կլինիկա</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -567,7 +557,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Back Office Employee</t>
+          <t>Բուժքույր</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -579,12 +569,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Համակարգչային օպերատոր</t>
+          <t>Վաճառողուհի</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Migtelecom</t>
+          <t>HESA - Accessories</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -594,7 +584,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Համակարգչային օպերատոր</t>
+          <t>Վաճառողուհի</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -606,12 +596,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Տեսահսկման Օպերատոր</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NUR Supermarket</t>
+          <t>Smart Control</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -621,7 +611,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Տեսահսկման Օպերատոր</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -633,76 +623,61 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t>Ինտերիեր-Էքստերիեր դիզայներ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hashtag SPORT </t>
+          <t>Van Eduard Design Studio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Ինտերիեր-Էքստերիեր դիզայներ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ավտոլվացող</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ավանգարդ Մոթորս ՍՊԸ </t>
+          <t xml:space="preserve">Hashtag SPORT </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ավտոլվացող</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DATA ANALYST / SCIENTIST</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Style Studio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -712,7 +687,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DATA ANALYST / SCIENTIST</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -724,12 +699,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SAS Programmer</t>
+          <t>Օֆիս Մենեջեր</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t xml:space="preserve">Կազմակերպություն </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -739,7 +714,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SAS Programmer</t>
+          <t>Օֆիս Մենեջեր</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -751,12 +726,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Email Marketing Specialist</t>
+          <t>Վաճառքի Խորհրդատու</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>LUXE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -766,7 +741,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Email Marketing Specialist</t>
+          <t>Վաճառքի Խորհրդատու</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -778,12 +753,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UI/UX Designer</t>
+          <t>ՄԱՏՈՒՑՈՂ-ՄԱՏՈՒՑՈՂՈՒՀԻ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Ակվատեկ համալիր</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -793,7 +768,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UI/UX Designer</t>
+          <t>ՄԱՏՈՒՑՈՂ-ՄԱՏՈՒՑՈՂՈՒՀԻ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -805,12 +780,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Junior Project Manager</t>
+          <t>Օդափոխության և օդորակման համակարգերի մասնագետ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Team Made Solutions</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -820,7 +795,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Junior Project Manager</t>
+          <t>Օդափոխության և օդորակման համակարգերի մասնագետ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -832,12 +807,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Վարսահարդար և կոսմետոլոգ</t>
+          <t>Մենեջեր-Թարգմանիչ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ada Beauty Salon </t>
+          <t>Global Parts</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -847,7 +822,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Վարսահարդար և կոսմետոլոգ</t>
+          <t>Մենեջեր-Թարգմանիչ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -859,12 +834,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
+          <t>Վաճառքի մենեջեր-գանձապահ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
+          <t>OKbabyArmenia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -874,12 +849,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
+          <t>Վաճառքի մենեջեր-գանձապահ</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -889,19 +864,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50000-110000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Խմորի մասնագետ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tawouk</t>
+          <t xml:space="preserve">Կազմակերպություն </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -911,7 +886,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Խմորի մասնագետ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -923,12 +898,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Media Group</t>
+          <t xml:space="preserve">Կազմակերպություն </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -938,17 +913,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -960,12 +925,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Մատուցող</t>
+          <t>Անգլերեն լեզվի ուսուցիչ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Օգոստոս Սրճարան </t>
+          <t>Academy of Creative Explorers</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -975,7 +940,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Մատուցող</t>
+          <t>Անգլերեն լեզվի ուսուցիչ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -987,22 +952,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Մատնահարդար և դիմահարդար</t>
+          <t>ՄԱՏՈՒՑՈՂ(ՈՒՀԻ)ՆԵՐ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loudos Cosmetic </t>
+          <t>Voski Restaurant</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Մատնահարդար և դիմահարդար</t>
+          <t>ՄԱՏՈՒՑՈՂ(ՈՒՀԻ)ՆԵՐ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1014,12 +979,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ինժեներ-նախագծող</t>
+          <t>Օպերատոր գանձապահ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ար և Ար Դիզայն Քնսթրաքշն ՍՊԸ</t>
+          <t>Voske Vtak</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1029,34 +994,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ինժեներ-նախագծող</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Օպերատոր գանձապահ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Հարցազրույցի ընթացքում կտեղեկանան</t>
+          <t>80000</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Մատուցող</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>All Eyes On Me</t>
+          <t>Pentasia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1066,7 +1026,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Մատուցող</t>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1078,12 +1048,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու</t>
+          <t>Chief of Party</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">R.A.T.A. Dent </t>
+          <t>Cardno International Development</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1093,7 +1063,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու</t>
+          <t>Chief of Party</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>&gt; 10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Դոկտոր</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1105,12 +1085,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ինտերիերի Դիզայներ</t>
+          <t>Armenian-Speaking Health Coach (Remote)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Style Studio</t>
+          <t>LifeDogo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1120,7 +1100,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ինտերիերի Դիզայներ</t>
+          <t>Armenian-Speaking Health Coach (Remote)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1132,12 +1122,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Program Officer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEVL Accounting</t>
+          <t>Center for International Private Enterprise</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1147,12 +1137,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Program Officer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1169,12 +1159,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Logistics Assistant</t>
+          <t>Assistant Operations Manager</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>World Health Organization</t>
+          <t>Clear Channel Outdoor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1184,12 +1174,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Logistics Assistant</t>
+          <t>Assistant Operations Manager</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Դոկտոր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1206,12 +1196,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ճարտարապետ-դիզայներ</t>
+          <t>Virtual Administrative Assistant</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ԿՈՄՖՈՐՏ Ռ ԵՎ Վ ՍՊԸ</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1221,34 +1211,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ճարտարապետ-դիզայներ</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Virtual Administrative Assistant</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Բանվոր-վարորդ</t>
+          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ԿՈՄՖՈՐՏ Ռ ԵՎ Վ ՍՊԸ</t>
+          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1258,34 +1238,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Բանվոր-վարորդ</t>
+          <t>Խնդրահարույց վարկերի կառավարման բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>170000-200000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Բժիշկ-ստոմատոլոգ</t>
+          <t>Senior ML/AI Research Scientist</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rav Dent Dental Clinic</t>
+          <t>Podcastle AI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1295,7 +1275,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Բժիշկ-ստոմատոլոգ</t>
+          <t>Senior ML/AI Research Scientist</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1307,12 +1287,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ճարտարապետ</t>
+          <t>Mid UI/UX Designer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Concept Design LLC</t>
+          <t>Podcastle AI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1322,7 +1302,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ճարտարապետ</t>
+          <t>Mid UI/UX Designer</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1334,12 +1324,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Logistics Manager</t>
+          <t>Senior Product Designer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sati Trans</t>
+          <t>TalkDesk</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1349,7 +1339,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Logistics Manager</t>
+          <t>Senior Product Designer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Դոկտոր</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Software Engineer, Back-End (Node.js)</t>
+          <t xml:space="preserve">ICITAP Administrative Advisor </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hexometer</t>
+          <t>PAE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1376,17 +1376,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Software Engineer, Back-End (Node.js)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t xml:space="preserve">ICITAP Administrative Advisor </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1398,12 +1388,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mid/Senior React.JS Developer</t>
+          <t>Senior .Net Developer</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hexometer</t>
+          <t>Veritas Technologies</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1413,17 +1403,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mid/Senior React.JS Developer</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Senior .Net Developer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1435,27 +1415,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Time production</t>
+          <t>TransPerfect</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Back Office Employee</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1467,12 +1442,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ծրագրերի Ղեկավար</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Հայ Կամավորների Բանկ / Armenian Volunteers Bank</t>
+          <t>NUR Supermarket</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1482,17 +1457,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ծրագրերի Ղեկավար</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1504,12 +1469,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mid/Senior Ruby on Rails</t>
+          <t>DATA ANALYST / SCIENTIST</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WICASTR</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1519,17 +1484,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mid/Senior Ruby on Rails</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>DATA ANALYST / SCIENTIST</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1541,12 +1496,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
+          <t>SAS Programmer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roche  </t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1556,17 +1511,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
+          <t>SAS Programmer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1578,12 +1523,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Չափագրող Կոնստրուկտոր, Արտադրության Ղեկավար</t>
+          <t>Email Marketing Specialist</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Meta Wood</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1593,7 +1538,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Չափագրող Կոնստրուկտոր, Արտադրության Ղեկավար</t>
+          <t>Email Marketing Specialist</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1605,12 +1550,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mnatany</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1620,7 +1565,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1632,12 +1577,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WordPress ծրագրավորող</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Future Systems</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1647,34 +1592,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WordPress ծրագրավորող</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>200.000-350.000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
+          <t>Վարսահարդար և կոսմետոլոգ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TIARA</t>
+          <t xml:space="preserve">Ada Beauty Salon </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1684,12 +1619,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>Վարսահարդար և կոսմետոլոգ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1701,12 +1631,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Senior Advisor</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SAIC</t>
+          <t>Tawouk</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1716,7 +1646,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Senior Advisor</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1728,12 +1658,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Freelance Software Engineer</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PubNative</t>
+          <t>Media Group</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1743,7 +1673,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Freelance Software Engineer</t>
+          <t>Վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1755,12 +1695,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Operario De Producción | consumo masivo</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LISTOS</t>
+          <t xml:space="preserve">Օգոստոս Սրճարան </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1770,7 +1710,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Operario De Producción | consumo masivo</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1782,12 +1722,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Promotores/Promotoras</t>
+          <t>Մատնահարդար և դիմահարդար</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALQUIMIA BTL</t>
+          <t xml:space="preserve">Loudos Cosmetic </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1797,7 +1737,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Promotores/Promotoras</t>
+          <t>Մատնահարդար և դիմահարդար</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1809,22 +1749,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Quality Control Inspector</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QIMA</t>
+          <t>All Eyes On Me</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quality Control Inspector</t>
+          <t>Մատուցող</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1836,12 +1776,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Պատվերների ձևակերպման մասնագետ</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Life Song</t>
+          <t xml:space="preserve">R.A.T.A. Dent </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1851,34 +1791,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Պատվերների ձևակերպման մասնագետ</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>սկսած 150000 դրամից</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Logistics Coordinator</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US based Company</t>
+          <t>MEVL Accounting</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1888,12 +1818,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Logistics Coordinator</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1910,12 +1840,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Տնօրեն</t>
+          <t>Logistics Assistant</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ՀՀ Աշխատանքի և Սոցիալական հարցերի Նախարարություն</t>
+          <t>World Health Organization</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1925,7 +1855,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Տնօրեն</t>
+          <t>Logistics Assistant</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Դոկտոր</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -1937,22 +1877,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
+          <t>Բժիշկ-ստոմատոլոգ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Կամավորի էջ</t>
+          <t>Rav Dent Dental Clinic</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
+          <t>Բժիշկ-ստոմատոլոգ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -1964,12 +1904,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Customer Support Specialist - English</t>
+          <t>Ճարտարապետ</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TT-Soft</t>
+          <t>Concept Design LLC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1979,17 +1919,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Customer Support Specialist - English</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t>Ճարտարապետ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2001,27 +1931,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Supervision Team Leader</t>
+          <t>Logistics Manager</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>Sati Trans</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Supervision Team Leader</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>&gt; 10</t>
+          <t>Logistics Manager</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2033,27 +1958,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Senior Quality Assurance Engineer</t>
+          <t>Software Engineer, Back-End (Node.js)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>Hexometer</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Senior Quality Assurance Engineer</t>
+          <t>Software Engineer, Back-End (Node.js)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2065,22 +1995,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Resident Supervisors</t>
+          <t>Mid/Senior React.JS Developer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>Hexometer</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Resident Supervisors</t>
+          <t>Mid/Senior React.JS Developer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2092,12 +2032,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Environment, Social, Health and Safety Expert</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>Time production</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2107,7 +2047,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Environment, Social, Health and Safety Expert</t>
+          <t>Վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2119,27 +2064,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Senior Highway Engineer</t>
+          <t>Ծրագրերի Ղեկավար</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
+          <t>Հայ Կամավորների Բանկ / Armenian Volunteers Bank</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Senior Highway Engineer</t>
+          <t>Ծրագրերի Ղեկավար</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2151,22 +2101,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Կամավորական աշխատանք</t>
+          <t>Mid/Senior Ruby on Rails</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ekelem_world is mine</t>
+          <t>WICASTR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ստաժավորում</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Կամավորական աշխատանք</t>
+          <t>Mid/Senior Ruby on Rails</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2178,22 +2138,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ծրագրի մենեջեր</t>
+          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Կամավորի էջ</t>
+          <t xml:space="preserve">Roche  </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ծրագրի մենեջեր</t>
+          <t>Enterprise Agile Coach (Business Transformation Coach)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2205,12 +2175,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Machine Learning Lead Engineer</t>
+          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>TIARA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2220,7 +2190,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Machine Learning Lead Engineer</t>
+          <t>Տուփերի նախագծում, նմուշների պատրաստում, դիզայն</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2232,12 +2207,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Վարորդ</t>
+          <t>Senior Advisor</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ՀՀ Առողջապահության Նախարարություն</t>
+          <t>SAIC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2247,7 +2222,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Վարորդ</t>
+          <t>Senior Advisor</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2259,12 +2234,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
+          <t>Freelance Software Engineer</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ՆՈՐՔ ԻՆՖԵԿՑԻՈՆ ԿԼԻՆԻԿԱԿԱՆ ՀԻՎԱՆԴԱՆՈՑ</t>
+          <t>PubNative</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2274,7 +2249,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
+          <t>Freelance Software Engineer</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2286,12 +2261,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Account Lead</t>
+          <t>Operario De Producción | consumo masivo</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Takeda</t>
+          <t>LISTOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2301,7 +2276,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Account Lead</t>
+          <t>Operario De Producción | consumo masivo</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2313,12 +2288,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման / Վաճառքի թիմի ղեկավար</t>
+          <t>Promotores/Promotoras</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Innosoft</t>
+          <t>ALQUIMIA BTL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2328,7 +2303,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման / Վաճառքի թիմի ղեկավար</t>
+          <t>Promotores/Promotoras</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2340,22 +2315,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Quality Control Inspector</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ՀՀ Առողջապահության Նախարարություն</t>
+          <t>QIMA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Quality Control Inspector</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2367,12 +2342,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Staff EDA Software Development Engineer</t>
+          <t>Պատվերների ձևակերպման մասնագետ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Xilinx Inc.</t>
+          <t>Life Song</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2382,34 +2357,34 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Staff EDA Software Development Engineer</t>
+          <t>Պատվերների ձևակերպման մասնագետ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>սկսած 150000 դրամից</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Logistics Coordinator</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Xilinx Inc.</t>
+          <t>US based Company</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2419,12 +2394,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Logistics Coordinator</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2441,12 +2416,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Principal EDA Software Development Engineer</t>
+          <t>Տնօրեն</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Xilinx Inc.</t>
+          <t>ՀՀ Աշխատանքի և Սոցիալական հարցերի Նախարարություն</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2456,17 +2431,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Principal EDA Software Development Engineer</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
+          <t>Տնօրեն</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2478,32 +2443,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
+          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Հայաստանի Հանրապետության տնտեսական մրցակցության պաշտպանության պետական հանձնաժողով</t>
+          <t>Կամավորի էջ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t xml:space="preserve">Կամավորական աշխատանք / Տնտեսական ծրագրի մենեջեր </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2515,12 +2470,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ճարտարապետ</t>
+          <t>Customer Support Specialist - English</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A41 Studio</t>
+          <t>TT-Soft</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2530,17 +2485,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ճարտարապետ</t>
+          <t>Customer Support Specialist - English</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2552,32 +2507,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
+          <t>Supervision Team Leader</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կազմակերպություն </t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փոխտնօրենի օգնական </t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Supervision Team Leader</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>&gt; 10</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2589,27 +2539,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Կառավարիչ /ծառայություններ և սպասարկում/</t>
+          <t>Senior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Կառավարիչ /ծառայություններ և սպասարկում/</t>
+          <t>Senior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2621,27 +2571,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ռեստորանային համալիրի մենեջեր</t>
+          <t>Resident Supervisors</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ռեստորանային համալիրի մենեջեր</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Resident Supervisors</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2653,27 +2598,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Սննդի բաժնի հաշվապահ</t>
+          <t>Environment, Social, Health and Safety Expert</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Սննդի բաժնի հաշվապահ</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Environment, Social, Health and Safety Expert</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2685,32 +2625,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lead Test Automation Engineer</t>
+          <t>Senior Highway Engineer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>RENARDET SA &amp; Partners Consulting Engineering</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Lead Test Automation Engineer</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
+          <t>Senior Highway Engineer</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2722,32 +2657,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Senior Test Automation Engineers</t>
+          <t>Կամավորական աշխատանք</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>Ekelem_world is mine</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ստաժավորում</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Senior Test Automation Engineers</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Կամավորական աշխատանք</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2759,32 +2684,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
+          <t>Ծրագրի մենեջեր</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>Կամավորի էջ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Ծրագրի մենեջեր</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2796,12 +2711,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Լոգիստ-Մենեջեր</t>
+          <t>Machine Learning Lead Engineer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>MY ARMENIAN NETWORK</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2811,34 +2726,24 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Լոգիստ-Մենեջեր</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Մենեջեր</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
+          <t>Machine Learning Lead Engineer</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Oպերատոր /1C ծրագրի իմացություն</t>
+          <t>Վարորդ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>ՀՀ Առողջապահության Նախարարություն</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2848,34 +2753,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Oպերատոր /1C ծրագրի իմացություն</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Միջնակարգ</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վարորդ</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Software QA Engineers</t>
+          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Codereadr Armenia</t>
+          <t>ՆՈՐՔ ԻՆՖԵԿՑԻՈՆ ԿԼԻՆԻԿԱԿԱՆ ՀԻՎԱՆԴԱՆՈՑ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2885,17 +2780,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Software QA Engineers</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Բուժքույր, մայրապետ, լվացքատան աշխատակից</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2907,12 +2792,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Account Lead</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Կոնցեպտում ՓԲԸ</t>
+          <t>Takeda</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2922,54 +2807,34 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Account Lead</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
+          <t>Հաճախորդների սպասարկման / Վաճառքի թիմի ղեկավար</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Լեզուների ուսուցման կենտրոն</t>
+          <t>Innosoft</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Հաճախորդների սպասարկման / Վաճառքի թիմի ղեկավար</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2981,32 +2846,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
+          <t>Կամավորներ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Standard Oil LLC</t>
+          <t>ՀՀ Առողջապահության Նախարարություն</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Կամավորներ</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3018,12 +2873,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Վաճառողուհի</t>
+          <t>Staff EDA Software Development Engineer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>«Սլադո ֆուդ» ՍՊԸ</t>
+          <t>Xilinx Inc.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3033,7 +2888,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Վաճառողուհի</t>
+          <t>Staff EDA Software Development Engineer</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5 - 10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3045,22 +2910,32 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intern (Technical-Engineering)</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Synopsys</t>
+          <t>Xilinx Inc.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ստաժավորում</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Intern (Technical-Engineering)</t>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3072,22 +2947,32 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Principal EDA Software Development Engineer</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>La Republica De La Felicidad</t>
+          <t>Xilinx Inc.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Principal EDA Software Development Engineer</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3099,12 +2984,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Բժիշկ և բուժքույր</t>
+          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>L&amp;G Dental Clinic</t>
+          <t>Հայաստանի Հանրապետության տնտեսական մրցակցության պաշտպանության պետական հանձնաժողով</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3114,7 +2999,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Բժիշկ և բուժքույր</t>
+          <t>Վերահսկողության վարչության առաջին բաժնի գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3124,7 +3009,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3136,12 +3021,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Amazon Supplier Relationship Specialist</t>
+          <t>Ճարտարապետ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Khachaturov Group</t>
+          <t>A41 Studio</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3151,7 +3036,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Amazon Supplier Relationship Specialist</t>
+          <t>Ճարտարապետ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3163,12 +3058,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Lead Test Automation Engineer</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Թաքս Այդիա ՍՊԸ</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3178,7 +3073,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Lead Test Automation Engineer</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3200,12 +3095,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Արտագնա տուր մենեջեր</t>
+          <t>Senior Test Automation Engineers</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Davinchi Travel</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3215,7 +3110,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Արտագնա տուր մենեջեր</t>
+          <t>Senior Test Automation Engineers</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3225,24 +3120,24 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>200000 դր․</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Davinchi Travel</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3252,7 +3147,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3262,24 +3157,24 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Experienced Online Marketing Specialists</t>
+          <t>Լոգիստ-Մենեջեր</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Khachaturov Group</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3289,34 +3184,34 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Experienced Online Marketing Specialists</t>
+          <t>Լոգիստ-Մենեջեր</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150000</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Մանկավարժ</t>
+          <t>Oպերատոր /1C ծրագրի իմացություն</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Մեղուներ</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3326,12 +3221,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Մանկավարժ</t>
+          <t>Oպերատոր /1C ծրագրի իմացություն</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3341,19 +3236,19 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120000</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ENGLISH SPEAKING CALL AGENT</t>
+          <t>Software QA Engineers</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Armada Armenia</t>
+          <t>Codereadr Armenia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3363,7 +3258,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ENGLISH SPEAKING CALL AGENT</t>
+          <t>Software QA Engineers</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3375,49 +3280,69 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jaher</t>
+          <t>Կոնցեպտում ՓԲԸ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Լեզուների ուսուցման կենտրոն</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t xml:space="preserve">TOEF / IELTS դասավանդողներ </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3429,12 +3354,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Green Lane</t>
+          <t>Standard Oil LLC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3444,7 +3369,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>ՀԱՇՎԵՏԱՐ-ՕՊԵՐԱՏՈՐ</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3456,12 +3391,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Վաճառողուհի</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Study for Success</t>
+          <t>«Սլադո ֆուդ» ՍՊԸ</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3471,7 +3406,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Վաճառողուհի</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3483,22 +3418,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Photographer Volunteer</t>
+          <t>Intern (Technical-Engineering)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Today Art</t>
+          <t>Synopsys</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ստաժավորում</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Photographer Volunteer</t>
+          <t>Intern (Technical-Engineering)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3510,32 +3445,32 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NetSuite Ինժեներ (Remote possible)</t>
+          <t>Բժիշկ և բուժքույր</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WeDoTek LLC</t>
+          <t>L&amp;G Dental Clinic</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NetSuite Ինժեներ (Remote possible)</t>
+          <t>Բժիշկ և բուժքույր</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Դոկտոր</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3547,32 +3482,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>La Republica De La Felicidad</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3584,12 +3509,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SMM Specialist</t>
+          <t>Amazon Supplier Relationship Specialist</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>Khachaturov Group</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3599,17 +3524,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SMM Specialist</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Amazon Supplier Relationship Specialist</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3621,12 +3536,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>Թաքս Այդիա ՍՊԸ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3636,7 +3551,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3658,12 +3573,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Native US Copywriter</t>
+          <t>Արտագնա տուր մենեջեր</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GAT Soft LLC</t>
+          <t>Davinchi Travel</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3673,7 +3588,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Native US Copywriter</t>
+          <t>Արտագնա տուր մենեջեր</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3683,24 +3598,24 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200000 դր․</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ՋԻ ԹԻ Ըքաունթինգ</t>
+          <t>Davinchi Travel</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3710,29 +3625,34 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200000</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
+          <t>Experienced Online Marketing Specialists</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Astom Family Dental Center</t>
+          <t>Khachaturov Group</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3742,7 +3662,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
+          <t>Experienced Online Marketing Specialists</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3754,12 +3684,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Digital Security Specialist - Consultant</t>
+          <t>Մանկավարժ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Counterpart International Armenia</t>
+          <t>Մեղուներ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3769,7 +3699,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Digital Security Specialist - Consultant</t>
+          <t>Մանկավարժ</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3791,32 +3721,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Agritourism Specialist</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ACDI/VOCA</t>
+          <t>Jaher</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Agritourism Specialist</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -3828,12 +3748,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Account Director, Banking Application Sales CIS</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3843,7 +3763,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Account Director, Banking Application Sales CIS</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -3855,12 +3775,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Նկարչուհի-դիզայներ</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>YES Republic</t>
+          <t>Green Lane</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3870,7 +3790,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Նկարչուհի-դիզայներ</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3882,12 +3802,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Բժշկական ներկայացուցիչ</t>
+          <t>Photographer Volunteer</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Med Progress</t>
+          <t>Today Art</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3897,17 +3817,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Բժշկական ներկայացուցիչ</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Photographer Volunteer</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -3919,12 +3829,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Աշկա Մարկետ</t>
+          <t>Study for Success</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3934,7 +3844,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -3946,12 +3856,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
+          <t>NetSuite Ինժեներ (Remote possible)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Armpack</t>
+          <t>WeDoTek LLC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3961,12 +3871,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
+          <t>NetSuite Ինժեներ (Remote possible)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Դոկտոր</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3983,12 +3893,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Var Holding</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3998,7 +3908,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4008,7 +3918,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4020,12 +3930,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Կարի մասնագետներ</t>
+          <t>SMM Specialist</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N2005 denim</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4035,17 +3945,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Կարի մասնագետներ</t>
+          <t>SMM Specialist</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4057,12 +3967,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Մատուցող/ուհիներ</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Սինեմա Սթար</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4072,29 +3982,34 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Մատուցող/ուհիներ</t>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>100000+</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
+          <t>Native US Copywriter</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Khachaturov Group</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4104,7 +4019,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
+          <t>Native US Copywriter</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4126,12 +4041,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Արտագնա   Տուր Մենեջեր</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Big Ben Travel</t>
+          <t>ՋԻ ԹԻ Ըքաունթինգ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4141,17 +4056,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Արտագնա   Տուր Մենեջեր</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4163,12 +4073,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Free Students Forum</t>
+          <t>Astom Family Dental Center</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4178,17 +4088,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Բժիշկ-ստոմատոլոգ և բուժքույր</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4200,12 +4100,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու</t>
+          <t>Digital Security Specialist - Consultant</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BD GROUP</t>
+          <t>Counterpart International Armenia</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4215,7 +4115,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու</t>
+          <t>Digital Security Specialist - Consultant</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4227,12 +4137,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t>Agritourism Specialist</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Decor Store</t>
+          <t>ACDI/VOCA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4242,12 +4152,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t>Agritourism Specialist</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4264,12 +4174,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Վաճառող-մասնագետ</t>
+          <t>Account Director, Banking Application Sales CIS</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BD GROUP</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4279,12 +4189,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Վաճառող-մասնագետ</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Account Director, Banking Application Sales CIS</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4296,12 +4201,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Laravel ծրագրավորող</t>
+          <t>Նկարչուհի-դիզայներ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Future Systems</t>
+          <t>YES Republic</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4311,34 +4216,24 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Laravel ծրագրավորող</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Ղեկավար</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t>Նկարչուհի-դիզայներ</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>250.000 - 500.000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Բժշկական ներկայացուցիչ</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>IDEANCO</t>
+          <t>Med Progress</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4348,7 +4243,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Բժշկական ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4370,12 +4265,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>International Marketing Specialist</t>
+          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>International Exports Acceleration Company - IEACO</t>
+          <t>Աշկա Մարկետ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4385,17 +4280,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>International Marketing Specialist</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Հսկիչ-վաճառող,գանձապահ և մաքրուհի</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4407,27 +4292,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Միջազգային կապի մենեջեր</t>
+          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Yot Networks</t>
+          <t>Armpack</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Միջազգային կապի մենեջեր</t>
+          <t xml:space="preserve">Վաճառքի Մենեջեր </t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4444,12 +4329,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Վաճառող(ուհի)-խորհրդատու</t>
+          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Տեպլոտեխնիկա</t>
+          <t>Var Holding</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4459,17 +4344,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Վաճառող(ուհի)-խորհրդատու</t>
+          <t>Հացաբուլկեղենի արտադրամասի աշխատակիցներ</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4481,12 +4366,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
+          <t>Կարի մասնագետներ</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ֆուտուրա ՍՊԸ</t>
+          <t xml:space="preserve"> N2005 denim</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4496,7 +4381,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
+          <t>Կարի մասնագետներ</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4508,49 +4403,44 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Export Manager&amp;Administrative Assistant</t>
+          <t>Մատուցող/ուհիներ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>«Գևորգյան գինու գործարան» ՍՊԸ</t>
+          <t>Սինեմա Սթար</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Export Manager&amp;Administrative Assistant</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Մատուցող/ուհիներ</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>100000+</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Сервисный администратор</t>
+          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>IKO Group</t>
+          <t>Khachaturov Group</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4560,12 +4450,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Сервисный администратор</t>
+          <t xml:space="preserve"> SUPPLIER ACQUISITION/RELATIONSHIP SPECIALIST</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4582,12 +4472,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Менеджер по продаже дорожно-строительной техники</t>
+          <t>Արտագնա   Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>IKO Group</t>
+          <t>Big Ben Travel</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4597,12 +4487,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Менеджер по продаже дорожно-строительной техники</t>
+          <t>Արտագնա   Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4619,12 +4509,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Администратор продаж основного оборудования</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>IKO Group</t>
+          <t>Free Students Forum</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4634,12 +4524,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Администратор продаж основного оборудования</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4656,12 +4546,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Վաճառող-մասնագետ</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Khachaturov Group</t>
+          <t>BD GROUP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4671,17 +4561,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
+          <t>Վաճառող-մասնագետ</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4693,12 +4578,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Менеджер</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Урарту Транс</t>
+          <t>BD GROUP</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4708,17 +4593,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Менеджер</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վաճառող-Խորհրդատու</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -4730,22 +4605,32 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Project Lab</t>
+          <t>Decor Store</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
+          <t>Օպերատոր</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4757,12 +4642,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Վարորդ-Առաքիչ</t>
+          <t>Laravel ծրագրավորող</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>C&amp;F CO LLC</t>
+          <t>Future Systems</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4772,24 +4657,34 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Վարորդ-Առաքիչ</t>
+          <t>Laravel ծրագրավորող</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Ղեկավար</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>սկսած 150000</t>
+          <t>250.000 - 500.000 AMD</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Aram Khachaturyan Museum</t>
+          <t>IDEANCO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4799,7 +4694,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4811,12 +4716,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Հարցազրուցավար</t>
+          <t>International Marketing Specialist</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>R-Insights Research and Consulting</t>
+          <t>International Exports Acceleration Company - IEACO</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4826,12 +4731,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Հարցազրուցավար</t>
+          <t>International Marketing Specialist</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4848,12 +4753,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXPERTS </t>
+          <t>Միջազգային կապի մենեջեր</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">International Center for Human Development </t>
+          <t>Yot Networks</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4863,12 +4768,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXPERTS </t>
+          <t>Միջազգային կապի մենեջեր</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4885,12 +4790,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Civic Tech Specialist</t>
+          <t>Վաճառող(ուհի)-խորհրդատու</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Counterpart International Armenia</t>
+          <t>Տեպլոտեխնիկա</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4900,12 +4805,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Civic Tech Specialist</t>
+          <t>Վաճառող(ուհի)-խորհրդատու</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>5 - 10</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4922,12 +4827,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Менеджер по продажам в Ереване</t>
+          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>IMCOSCOM ARMENIA</t>
+          <t>Ֆուտուրա ՍՊԸ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4937,17 +4842,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Менеджер по продажам в Ереване</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վաճառող, բանվոր, սղոցավար, գանձապահ</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -4959,32 +4854,32 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Региональный директор в Ереване</t>
+          <t>Export Manager&amp;Administrative Assistant</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ABRA</t>
+          <t>«Գևորգյան գինու գործարան» ՍՊԸ</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Региональный директор в Ереване</t>
+          <t>Export Manager&amp;Administrative Assistant</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -4996,12 +4891,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
+          <t>Khachaturov Group</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5011,17 +4906,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5033,49 +4928,39 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Օդորակիչների մոնտաժող</t>
+          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Telecom </t>
+          <t>Project Lab</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Օդորակիչների մոնտաժող</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Փորձառու</t>
+          <t xml:space="preserve">Կամավոր Ադմինիստրատիվ Օգնական </t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>70000-150000 ռուբլի</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Հարցազրուցավարներ</t>
+          <t>Վարորդ-Առաքիչ</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>IPM Research Armenia</t>
+          <t>C&amp;F CO LLC</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5085,34 +4970,24 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Հարցազրուցավարներ</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Վարորդ-Առաքիչ</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>սկսած 150000</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Մատուցող(ուհի)ներ</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2nd Floor</t>
+          <t>Aram Khachaturyan Museum</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5122,17 +4997,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Մատուցող(ուհի)ներ</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5144,12 +5009,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Տնօրենի օգնական</t>
+          <t>Հարցազրուցավար</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ԱՁ Գարիկ Մուրադյան</t>
+          <t>R-Insights Research and Consulting</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5159,12 +5024,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Տնօրենի օգնական</t>
+          <t>Հարցազրուցավար</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5181,12 +5046,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի Մասնագետ</t>
+          <t xml:space="preserve">EXPERTS </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>T Sayuz Trans</t>
+          <t xml:space="preserve">International Center for Human Development </t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5196,12 +5061,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի Մասնագետ</t>
+          <t xml:space="preserve">EXPERTS </t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5218,12 +5083,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Experienced React.js Developer – Remote</t>
+          <t>Civic Tech Specialist</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toptal </t>
+          <t>Counterpart International Armenia</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5233,12 +5098,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Experienced React.js Developer – Remote</t>
+          <t>Civic Tech Specialist</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>5 - 10</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5255,12 +5120,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
+          <t>Менеджер по продажам в Ереване</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Armeconombank</t>
+          <t>IMCOSCOM ARMENIA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5270,7 +5135,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
+          <t>Менеджер по продажам в Ереване</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5292,12 +5157,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1C Գործավար</t>
+          <t>Региональный директор в Ереване</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GAT Cutting LLC</t>
+          <t>ABRA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5307,17 +5172,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1C Գործավար</t>
+          <t>Региональный директор в Ереване</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5329,12 +5194,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական</t>
+          <t>Վարկային Մասնագետ</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ֆորա ՍՊԸ</t>
+          <t>էքսպրես Կրեդիտ ՈՒՎԿ</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5344,7 +5209,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական</t>
+          <t>Վարկային Մասնագետ</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Ղեկավար</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5356,12 +5231,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ավտովարձույթի գործակալ</t>
+          <t>Հարցազրուցավարներ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ֆորա ՍՊԸ</t>
+          <t>IPM Research Armenia</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5371,24 +5246,34 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Ավտովարձույթի գործակալ</t>
+          <t>Հարցազրուցավարներ</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt; 1</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t xml:space="preserve">200000 </t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
+          <t>Օդորակիչների մոնտաժող</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Voskevaz Wine Time</t>
+          <t xml:space="preserve">Telecom </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5398,7 +5283,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
+          <t>Օդորակիչների մոնտաժող</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5408,61 +5293,61 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>70000-150000 ռուբլի</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Գրասենյակային աշխատանք</t>
+          <t>Մատուցող(ուհի)ներ</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Եվրասիական Հոլդինգ</t>
+          <t>2nd Floor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Գրասենյակային աշխատանք</t>
+          <t>Մատուցող(ուհի)ներ</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ղեկավար</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
+          <t>Տնօրենի օգնական</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Finlaw LLC</t>
+          <t>ԱՁ Գարիկ Մուրադյան</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5472,12 +5357,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
+          <t>Տնօրենի օգնական</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5494,12 +5379,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Վաճառքի պատասխանատու, շուկայի զարգացման մասնագետ</t>
+          <t>Լոգիստիկայի Մասնագետ</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PURATOS ARMENIA</t>
+          <t>T Sayuz Trans</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5509,17 +5394,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Վաճառքի պատասխանատու, շուկայի զարգացման մասնագետ</t>
+          <t>Լոգիստիկայի Մասնագետ</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5531,12 +5416,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Country Manager</t>
+          <t>1C Գործավար</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ABT Associates</t>
+          <t>GAT Cutting LLC</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5546,12 +5431,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Country Manager</t>
+          <t>1C Գործավար</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5568,12 +5453,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Junior Project Manager</t>
+          <t>Ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>Ֆորա ՍՊԸ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5583,17 +5468,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Junior Project Manager</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5605,12 +5480,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Ավտովարձույթի գործակալ</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sense Branding</t>
+          <t>Ֆորա ՍՊԸ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5620,34 +5495,24 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
+          <t>Ավտովարձույթի գործակալ</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">200000 </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Օպերատոր և ցանցային մասնագետ</t>
+          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Real Time</t>
+          <t>Voskevaz Wine Time</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5657,7 +5522,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Օպերատոր և ցանցային մասնագետ</t>
+          <t xml:space="preserve">Մատուցող(ուհի)ներ, խոհարար, խոհարարի օգնական </t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5679,49 +5544,49 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Գրասենյակային աշխատանք</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NTIC</t>
+          <t>Եվրասիական Հոլդինգ</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Գրասենյակային աշխատանք</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Ղեկավար</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Գանձապահ-վաճառողուհի</t>
+          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MM RETAIL LLC</t>
+          <t>Finlaw LLC</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5731,12 +5596,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Գանձապահ-վաճառողուհի</t>
+          <t xml:space="preserve">Ադմինիստրատիվ օգնական </t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 1</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5753,12 +5618,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի մասնագետ</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ARCATRANS</t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5768,12 +5633,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի մասնագետ</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5790,12 +5655,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Armenian Audiobooks</t>
+          <t>Sense Branding</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5805,12 +5670,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5827,12 +5692,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Օպերատոր և ցանցային մասնագետ</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hostelandtours</t>
+          <t>Real Time</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5842,7 +5707,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Օպերատոր և ցանցային մասնագետ</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5864,12 +5729,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Mobile Developer</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Bikeathon Armenia</t>
+          <t>NTIC</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5879,12 +5744,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Կամավորներ</t>
+          <t>Mobile Developer</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5901,12 +5766,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
+          <t>Գանձապահ-վաճառողուհի</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Agoda</t>
+          <t>MM RETAIL LLC</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5916,12 +5781,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
+          <t>Գանձապահ-վաճառողուհի</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5938,12 +5803,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Oպերատոր</t>
+          <t>Լոգիստիկայի մասնագետ</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fiore by Mukuchyan </t>
+          <t>ARCATRANS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5953,7 +5818,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Oպերատոր</t>
+          <t>Լոգիստիկայի մասնագետ</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5975,12 +5840,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Carrier Account Manager</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Trust Telecom</t>
+          <t>Armenian Audiobooks</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5990,12 +5855,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Carrier Account Manager</t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6012,12 +5877,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TeamViewer Armenia</t>
+          <t>Hostelandtours</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6027,12 +5892,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6049,12 +5914,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Operations Manager</t>
+          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>Agoda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6064,12 +5929,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Operations Manager</t>
+          <t>Workforce Management Planning Analyst | Based in Bangkok</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6086,12 +5951,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Կամավորներ</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Համահայկական Կամավորական Միություն</t>
+          <t>Bikeathon Armenia</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6101,12 +5966,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Կամավոր</t>
+          <t>Կամավորներ</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6123,12 +5988,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>Oպերատոր</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Compact Computer Services</t>
+          <t xml:space="preserve">Fiore by Mukuchyan </t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6138,7 +6003,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>Oպերատոր</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6160,12 +6025,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t>Carrier Account Manager</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Complife</t>
+          <t>Trust Telecom</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6175,12 +6040,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Խորհրդատու-Վաճառողուհի</t>
+          <t>Carrier Account Manager</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6197,12 +6062,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>YotaGo</t>
+          <t>TeamViewer Armenia</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6212,12 +6077,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6234,27 +6099,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volunteers </t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Apaga</t>
+          <t>Համահայկական Կամավորական Միություն</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volunteers </t>
+          <t>Կամավոր</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6271,12 +6136,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Back-End Developer</t>
+          <t>Operations Manager</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>YotaGo</t>
+          <t>Bolt</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6286,12 +6151,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Back-End Developer</t>
+          <t>Operations Manager</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6308,12 +6173,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>Compact Computer Services</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6323,7 +6188,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6345,12 +6210,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Բանվոր(ուհիներ)</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Լ.Ա. ՊԼԱՍՏ</t>
+          <t>Complife</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6360,12 +6225,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Բանվոր(ուհիներ)</t>
+          <t>Խորհրդատու-Վաճառողուհի</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Միջնակարգ</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6382,44 +6247,49 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Օպերատոր գանձապահ</t>
+          <t xml:space="preserve">Volunteers </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Voske Vtak</t>
+          <t>Apaga</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Օպերատոր գանձապահ</t>
+          <t xml:space="preserve">Volunteers </t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ՊԻ ԿԱ ԷՖ ԱՈՒԴԻՏ ՍԵՐՎԻՍ ՍՊԸ</t>
+          <t>YotaGo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6429,34 +6299,34 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ֆրանսերենի Մասնագետ</t>
+          <t>Back-End Developer</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Damaris AM LLC</t>
+          <t>YotaGo</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6466,7 +6336,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Ֆրանսերենի Մասնագետ</t>
+          <t>Back-End Developer</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6488,12 +6358,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Բժշկական Սարքավորումների Մասնագետ</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Առողջապահության նախարարության «Առողջապահական ծրագրերի իրականացման գրասենյակ» պետական հիմնարկ</t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6503,12 +6373,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Բժշկական Սարքավորումների Մասնագետ</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Դոկտոր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6518,34 +6388,39 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Բանվոր(ուհիներ)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Փիրալյան ՍՊԸ</t>
+          <t>Լ.Ա. ՊԼԱՍՏ</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Բանվոր(ուհիներ)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Միջնակարգ</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6557,12 +6432,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Տպագրական սարքավորումների օպերատոր</t>
+          <t>Ֆրանսերենի Մասնագետ</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SUN AM Innovative Print Studio</t>
+          <t>Damaris AM LLC</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6572,12 +6447,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Տպագրական սարքավորումների օպերատոր</t>
+          <t>Ֆրանսերենի Մասնագետ</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6594,12 +6469,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
+          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ресторан</t>
+          <t>ՊԻ ԿԱ ԷՖ ԱՈՒԴԻՏ ՍԵՐՎԻՍ ՍՊԸ</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6609,24 +6484,34 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
+          <t>ՀՀՀԱԱ-ի կողմից որակավորված աուդիտոր</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Արտագնա Տուր Մենեջեր</t>
+          <t>Բժշկական Սարքավորումների Մասնագետ</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Էլ ընդ Այ Տուր</t>
+          <t>Առողջապահության նախարարության «Առողջապահական ծրագրերի իրականացման գրասենյակ» պետական հիմնարկ</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6636,44 +6521,49 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Արտագնա Տուր Մենեջեր</t>
+          <t>Բժշկական Սարքավորումների Մասնագետ</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Դոկտոր</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>IPRC</t>
+          <t>Փիրալյան ՍՊԸ</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
+          <t>Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
         <is>
           <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -6685,12 +6575,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Տպագրական սարքավորումների օպերատոր</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>IPRC</t>
+          <t>SUN AM Innovative Print Studio</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6700,12 +6590,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Տպագրական սարքավորումների օպերատոր</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6722,12 +6612,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Հոգեբան</t>
+          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MADATYAN Centre of Psychology</t>
+          <t>Ресторан</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6737,34 +6627,24 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Հոգեբան</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
+          <t>Խոհարար ունիվերսալ Ռուսաստանում</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50000</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PHP and Javascript Developer</t>
+          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Softberg Armenia</t>
+          <t>IPRC</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6774,12 +6654,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PHP and Javascript Developer</t>
+          <t xml:space="preserve">Վաճառքի Մասնագետ </t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6796,12 +6676,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Մարքեթոլոգ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Standard Oil</t>
+          <t>IPRC</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6811,7 +6691,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Մարքեթոլոգ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6833,12 +6713,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Մարքեթինգի մասնագետ</t>
+          <t>Հոգեբան</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Made To Make LLC</t>
+          <t>MADATYAN Centre of Psychology</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6848,17 +6728,17 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Մարքեթինգի մասնագետ</t>
+          <t>Հոգեբան</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6870,12 +6750,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Դիզայներ</t>
+          <t>PHP and Javascript Developer</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Print House.am</t>
+          <t>Softberg Armenia</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6885,12 +6765,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Դիզայներ</t>
+          <t>PHP and Javascript Developer</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6900,19 +6780,19 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>150000 d8.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Գրաֆիկ Դիզայներ</t>
+          <t>Մարքեթոլոգ</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>GMG DOORS</t>
+          <t>Standard Oil</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6922,12 +6802,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Գրաֆիկ Դիզայներ</t>
+          <t>Մարքեթոլոգ</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6944,12 +6824,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ellips GA</t>
+          <t>Made To Make LLC</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6959,17 +6839,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -6981,12 +6861,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Դիզայներ</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Ellips GA</t>
+          <t>Print House.am</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6996,12 +6876,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Դիզայներ</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7011,19 +6891,19 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150000 d8.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
+          <t>Գրաֆիկ Դիզայներ</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ekey</t>
+          <t>GMG DOORS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7033,7 +6913,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
+          <t>Գրաֆիկ Դիզայներ</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7055,12 +6935,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ԵԹԵՐԻ ԹՈՂԱՐԿԻՉ</t>
+          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ՇԱՆԹ ՍՊԸ Հեռուստաընկերություն</t>
+          <t>Ekey</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7070,7 +6950,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ԵԹԵՐԻ ԹՈՂԱՐԿԻՉ</t>
+          <t>Պլաստիկ քարտերի տպագրատան աշխատակից</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7203,12 +7083,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Marketing Communications Manager</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Prime Commercial</t>
+          <t>YEA Engineering</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7218,7 +7098,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Marketing Communications Manager</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7240,12 +7120,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AGG Motors</t>
+          <t>Digital Pomegranate</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7255,7 +7135,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7277,12 +7157,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Standard Oil</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7292,7 +7172,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7314,12 +7194,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Marketing Communications Manager</t>
+          <t>Արտադրության հաշվետար</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>YEA Engineering</t>
+          <t>SPS Cigaronne LLC</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7329,12 +7209,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Marketing Communications Manager</t>
+          <t>Արտադրության հաշվետար</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7351,12 +7231,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>King Travel</t>
+          <t>Panorama Lounge Bar&amp;Restaurant</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7366,7 +7246,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7388,12 +7268,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Panorama Lounge Bar&amp;Restaurant</t>
+          <t>King Travel</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7403,7 +7283,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7425,12 +7305,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Hardware Engineer</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Digital Pomegranate</t>
+          <t>Cisco Systems Armenia</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7440,12 +7320,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Hardware Engineer</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7462,12 +7342,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Standard Oil</t>
+          <t>WEB-STOLICA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7477,7 +7357,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7499,12 +7379,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Արտադրության հաշվետար</t>
+          <t>REACT JS DEVELOPER</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SPS Cigaronne LLC</t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7514,12 +7394,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Արտադրության հաշվետար</t>
+          <t>REACT JS DEVELOPER</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7536,12 +7416,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Hardware Engineer</t>
+          <t>UI/UX DESIGNER</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Cisco Systems Armenia</t>
+          <t>AOD space</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7551,12 +7431,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Hardware Engineer</t>
+          <t>UI/UX DESIGNER</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7573,12 +7453,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>WEB-STOLICA</t>
+          <t>YEA Engineering</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7588,12 +7468,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7610,12 +7490,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>REACT JS DEVELOPER</t>
+          <t>RIGGER/ROUSTABOUT</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>Horizon Offshore</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7625,12 +7505,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>REACT JS DEVELOPER</t>
+          <t>RIGGER/ROUSTABOUT</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7647,22 +7527,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>UI/UX DESIGNER</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>AOD space</t>
+          <t>PayVA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>UI/UX DESIGNER</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7684,12 +7564,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Mentor Volunteers</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>YEA Engineering</t>
+          <t>CoderDojo Armenia</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7699,12 +7579,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Mentor Volunteers</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7721,27 +7601,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RIGGER/ROUSTABOUT</t>
+          <t>Վաճառքի Մասնագետ</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Horizon Offshore</t>
+          <t>Brainbit</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RIGGER/ROUSTABOUT</t>
+          <t>Վաճառքի Մասնագետ</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7758,12 +7638,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>JavaScript Developer</t>
+          <t>Ծրագրի կոորդինատոր</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>LaravelSoft</t>
+          <t>People in Need</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7773,7 +7653,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>JavaScript Developer</t>
+          <t>Ծրագրի կոորդինատոր</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7795,27 +7675,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Microservices Engineer</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PayVA</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Microservices Engineer</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7832,12 +7712,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Mentor Volunteers</t>
+          <t>QA Analyst</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>CoderDojo Armenia</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7847,12 +7727,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Mentor Volunteers</t>
+          <t>QA Analyst</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7869,27 +7749,27 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Վաճառքի Մասնագետ</t>
+          <t>Junior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Brainbit</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Վաճառքի Մասնագետ</t>
+          <t>Junior Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7906,12 +7786,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Wordpress &amp; full stack (payment system support) developers</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Necasta</t>
+          <t>Questrade</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7921,12 +7801,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Wordpress &amp; full stack (payment system support) developers</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7943,12 +7823,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Ծրագրի կոորդինատոր</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>People in Need</t>
+          <t>Dan Travel</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7958,12 +7838,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Ծրագրի կոորդինատոր</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7980,27 +7860,27 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Microservices Engineer</t>
+          <t>Translators</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t>Finlaw LLC</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Microservices Engineer</t>
+          <t>Translators</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -8017,12 +7897,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>QA Analyst</t>
+          <t>Technical Assistant</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t>AYWA-Armenian Young Women's Association</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8032,12 +7912,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>QA Analyst</t>
+          <t>Technical Assistant</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8054,12 +7934,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Junior Quality Assurance Engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t>Slice Consulting</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8069,12 +7949,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Junior Quality Assurance Engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8091,12 +7971,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Questrade</t>
+          <t xml:space="preserve">IT Manager LLC </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8106,17 +7986,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Փորձառու</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8128,12 +8008,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Junior iOS Developer</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Dan Travel</t>
+          <t>Gazan Apps</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8143,7 +8023,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Junior iOS Developer</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -8165,27 +8045,27 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Translators</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Finlaw LLC</t>
+          <t>Evolver</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Translators</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8202,12 +8082,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Technical Assistant</t>
+          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AYWA-Armenian Young Women's Association</t>
+          <t>Gazzar Studio</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8217,7 +8097,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Technical Assistant</t>
+          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -8239,12 +8119,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Slice Consulting</t>
+          <t>Tumo Center for Creative Technologies</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8254,7 +8134,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -8276,12 +8156,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
+          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">IT Manager LLC </t>
+          <t>GSoft</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8291,17 +8171,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Փնտրում ենք վաճառքի մենեջեր </t>
+          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Փորձառու</t>
+          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8313,12 +8193,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Evolver</t>
+          <t>Led Computers</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8328,12 +8208,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8350,12 +8230,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Junior iOS Developer</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Gazan Apps</t>
+          <t>Freeway Finance</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8365,7 +8245,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Junior iOS Developer</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8387,12 +8267,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>International Sales Coordinator</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>HayPost</t>
+          <t xml:space="preserve">Go Travel </t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8402,7 +8282,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>International Sales Coordinator</t>
+          <t>Tour Manager</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8424,12 +8304,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
+          <t>Frontend Developer</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Gazzar Studio</t>
+          <t>Due-X</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8439,7 +8319,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Վաճառքների և մարքեթինգի գծով մասնագետներ</t>
+          <t>Frontend Developer</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8461,12 +8341,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>IOS Developer</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Tumo Center for Creative Technologies</t>
+          <t>Due-X</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8476,7 +8356,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>IOS Developer</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8498,12 +8378,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
+          <t>Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>GSoft</t>
+          <t>Travel&amp;Co.</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8513,7 +8393,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1C ԾՐԱԳՐԱՎՈՐՈՂ</t>
+          <t>Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8535,12 +8415,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Frontend Developer</t>
+          <t>ENGLISH TEACHER</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Due-X</t>
+          <t>Advance by Challenges</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8550,7 +8430,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Frontend Developer</t>
+          <t>ENGLISH TEACHER</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8572,12 +8452,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>IOS Developer</t>
+          <t>Nanny</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Due-X</t>
+          <t xml:space="preserve">Eight Guardian Angels </t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8587,7 +8467,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>IOS Developer</t>
+          <t>Nanny</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8609,12 +8489,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>iOS Developer</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Led Computers</t>
+          <t>Way4app</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8624,12 +8504,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>iOS Developer</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8646,12 +8526,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>EXECUTIVE ASSISTANT</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Freeway Finance</t>
+          <t>SEF INTERNATIONAL</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8661,7 +8541,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>EXECUTIVE ASSISTANT</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8683,12 +8563,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Go Travel </t>
+          <t>SEF INTERNATIONAL</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8698,7 +8578,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8720,12 +8600,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magento Programmer </t>
+          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Spaceplug</t>
+          <t>SEF INTERNATIONAL</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,12 +8615,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magento Programmer </t>
+          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8757,12 +8637,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Տուր Մենեջեր</t>
+          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Travel&amp;Co.</t>
+          <t>EXPRESSPRINT LLC</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8772,12 +8652,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Տուր Մենեջեր</t>
+          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8794,12 +8674,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Ծրագրի ղեկավար</t>
+          <t>Digital Storyteller</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8809,12 +8689,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Ծրագրի ղեկավար</t>
+          <t>Digital Storyteller</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8831,12 +8711,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>English Tutor</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>E-corner English School</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8846,12 +8726,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>English Tutor</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8868,12 +8748,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Influencer Marketing Specialist</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prima Finance</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8883,7 +8763,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Influencer Marketing Specialist</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8905,12 +8785,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SENIOR QA AUTOMATION ENGINEER</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Aragil Online Marketing Agency</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8920,12 +8800,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>SENIOR QA AUTOMATION ENGINEER</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8942,12 +8822,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FULL STACK DEVELOPER</t>
+          <t>Менеджер по продажам</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Computer Service LLC</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8957,12 +8837,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>FULL STACK DEVELOPER</t>
+          <t>Менеджер по продажам</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8979,12 +8859,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SENIOR WEB ENGINEER</t>
+          <t>Logistic-manager</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MY ARMENIAN NETWORK</t>
+          <t>Mira Trans</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8994,7 +8874,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>SENIOR WEB ENGINEER</t>
+          <t>Logistic-manager</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -9016,12 +8896,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ENGLISH TEACHER</t>
+          <t>Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Advance by Challenges</t>
+          <t>SFL LLC</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9031,12 +8911,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>ENGLISH TEACHER</t>
+          <t>Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -9053,12 +8933,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Nanny</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eight Guardian Angels </t>
+          <t>Baleni Art</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9068,7 +8948,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Nanny</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -9090,12 +8970,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>EXECUTIVE ASSISTANT</t>
+          <t>Web Programmer</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SEF INTERNATIONAL</t>
+          <t>Digex IT</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9105,7 +8985,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>EXECUTIVE ASSISTANT</t>
+          <t>Web Programmer</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -9127,12 +9007,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
+          <t>Software Engineer/Management Applications Team</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SEF INTERNATIONAL</t>
+          <t>BlueNet LLC</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9142,7 +9022,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>ՈՍԿԵՐԻՉ-ԳՆԱՀԱՏՈՂ</t>
+          <t>Software Engineer/Management Applications Team</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -9164,12 +9044,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
+          <t>Software Engineer/ Infrastructure System Team</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SEF INTERNATIONAL</t>
+          <t>BlueNet LLC</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9179,7 +9059,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>ՎԱՐԿԱՅԻՆ ՄԱՍՆԱԳԵՏ</t>
+          <t>Software Engineer/ Infrastructure System Team</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -9201,12 +9081,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>iOS Developer</t>
+          <t>Software Engineer/Session Initiation Protocol Team</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Way4app</t>
+          <t>BlueNet LLC</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9216,12 +9096,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>iOS Developer</t>
+          <t>Software Engineer/Session Initiation Protocol Team</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9238,12 +9118,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Խորհրդատու-վաճառողուհի</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Web Solution</t>
+          <t>SALI</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9253,7 +9133,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Խորհրդատու-վաճառողուհի</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -9275,12 +9155,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
+          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>EXPRESSPRINT LLC</t>
+          <t>Արաբկիր Վարչական Շրջան</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9290,12 +9170,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>PHP/JS Developer (Symfony, Angular JS, Node.js)</t>
+          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -9312,12 +9192,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Digital Storyteller</t>
+          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Արաբկիր Վարչական Շրջան</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9327,7 +9207,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Digital Storyteller</t>
+          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -9349,12 +9229,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9364,7 +9244,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -9386,12 +9266,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Influencer Marketing Specialist</t>
+          <t>CONTENT MANAGER</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9401,12 +9281,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Influencer Marketing Specialist</t>
+          <t>CONTENT MANAGER</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9423,12 +9303,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>PHP/Laravel Developer</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Aragil Online Marketing Agency</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9438,12 +9318,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>PHP/Laravel Developer</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -9460,12 +9340,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Менеджер по продажам</t>
+          <t xml:space="preserve"> YII2 DEVELOPER</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Computer Service LLC</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9475,12 +9355,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Менеджер по продажам</t>
+          <t xml:space="preserve"> YII2 DEVELOPER</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9497,12 +9377,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Logistic-manager</t>
+          <t>Frontend Developer / Angular 2+</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Mira Trans</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9512,12 +9392,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Logistic-manager</t>
+          <t>Frontend Developer / Angular 2+</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -9534,12 +9414,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>Android Developer</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ATM Programming</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9549,12 +9429,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>Android Developer</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9571,12 +9451,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Business Intelligence Analyst</t>
+          <t>DATA SCIENTIST</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SFL LLC</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9586,7 +9466,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Business Intelligence Analyst</t>
+          <t>DATA SCIENTIST</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9608,12 +9488,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>JAVASCRIPT NINJA</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Digex IT</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9623,12 +9503,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Web Programmer</t>
+          <t>JAVASCRIPT NINJA</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9645,12 +9525,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Node JS Ninja</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Baleni Art</t>
+          <t>Develandoo LLC</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9660,12 +9540,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Node JS Ninja</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9682,12 +9562,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Coreldraw, Photoshop Specialist</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Baleni Art</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9697,12 +9577,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Coreldraw, Photoshop Specialist</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9719,12 +9599,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Software Engineer/Management Applications Team</t>
+          <t>IOS developer</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>BlueNet LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9734,12 +9614,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Software Engineer/Management Applications Team</t>
+          <t>IOS developer</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9756,12 +9636,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Software Engineer/ Infrastructure System Team</t>
+          <t>Front-end developer</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>BlueNet LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9771,12 +9651,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Software Engineer/ Infrastructure System Team</t>
+          <t>Front-end developer</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9793,12 +9673,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Software Engineer/Session Initiation Protocol Team</t>
+          <t>Node.js developer</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BlueNet LLC</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9808,7 +9688,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Software Engineer/Session Initiation Protocol Team</t>
+          <t>Node.js developer</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9830,12 +9710,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառողուհի</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SALI</t>
+          <t>All.me</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9845,7 +9725,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառողուհի</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9867,12 +9747,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
+          <t>Sr. DevOps Engineer</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Արաբկիր Վարչական Շրջան</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9882,12 +9762,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Համակարգչային տեխնիկայի օպերատոր-գործավար</t>
+          <t>Sr. DevOps Engineer</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9904,12 +9784,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
+          <t>Sr. Java Software Developer</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Արաբկիր Վարչական Շրջան</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9919,12 +9799,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Առաջին կարգի մասնագետ Ֆինանսական բաժնում</t>
+          <t>Sr. Java Software Developer</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9941,12 +9821,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
+          <t>Sr. iOS Engineer</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9956,7 +9836,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
+          <t>Sr. iOS Engineer</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9978,12 +9858,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CONTENT MANAGER</t>
+          <t>Sr. Android Network Engineer</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9993,7 +9873,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>CONTENT MANAGER</t>
+          <t>Sr. Android Network Engineer</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -10015,12 +9895,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PHP/Laravel Developer</t>
+          <t>Sr. Android Engineer - Team Lead</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10030,7 +9910,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>PHP/Laravel Developer</t>
+          <t>Sr. Android Engineer - Team Lead</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -10052,12 +9932,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YII2 DEVELOPER</t>
+          <t>Manager/People Operations</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>DISQO</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10067,12 +9947,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YII2 DEVELOPER</t>
+          <t>Manager/People Operations</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>3 - 5</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -10089,12 +9969,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Frontend Developer / Angular 2+</t>
+          <t>Office IT Specialist</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10104,12 +9984,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Frontend Developer / Angular 2+</t>
+          <t>Office IT Specialist</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -10126,12 +10006,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t xml:space="preserve"> System Architect</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10141,7 +10021,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t xml:space="preserve"> System Architect</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -10163,12 +10043,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>DATA SCIENTIST</t>
+          <t>QA Specialist</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10178,7 +10058,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>DATA SCIENTIST</t>
+          <t>QA Specialist</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -10200,12 +10080,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>JAVASCRIPT NINJA</t>
+          <t>Senior Java Developer</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10215,17 +10095,17 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>JAVASCRIPT NINJA</t>
+          <t>Senior Java Developer</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
           <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10237,12 +10117,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Node JS Ninja</t>
+          <t>Senior Frontend Developer</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Develandoo LLC</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10252,17 +10132,17 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Node JS Ninja</t>
+          <t>Senior Frontend Developer</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
           <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10274,12 +10154,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>JavaScript Developer</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10289,7 +10169,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>JavaScript Developer</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -10311,12 +10191,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>IOS developer</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10326,12 +10206,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>IOS developer</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10348,12 +10228,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Front-end developer</t>
+          <t>Java Developer</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>IU Networks LLC</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10363,7 +10243,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Front-end developer</t>
+          <t>Java Developer</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -10373,7 +10253,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Բակալավր</t>
+          <t>Մագիստրոս</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10385,12 +10265,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Node.js developer</t>
+          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10400,12 +10280,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Node.js developer</t>
+          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10422,12 +10302,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>All.me</t>
+          <t>GAT Soft LLC</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10437,12 +10317,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>1 - 3</t>
+          <t xml:space="preserve"> &lt; 1</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10459,12 +10339,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Sr. DevOps Engineer</t>
+          <t>ՍՄՄ մասնագետ</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>GAT Cutting LLC</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10474,12 +10354,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Sr. DevOps Engineer</t>
+          <t>ՍՄՄ մասնագետ</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -10496,12 +10376,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Sr. Java Software Developer</t>
+          <t>Գրաֆիկ դիզայներ</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>GAT Cutting LLC</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10511,12 +10391,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Sr. Java Software Developer</t>
+          <t>Գրաֆիկ դիզայներ</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10533,12 +10413,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Sr. iOS Engineer</t>
+          <t>Գնումների մասնագետ</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>GAT Cutting LLC</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10548,12 +10428,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Sr. iOS Engineer</t>
+          <t>Գնումների մասնագետ</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10570,12 +10450,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Sr. Android Network Engineer</t>
+          <t>Senior J2EE Developer</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>Daniam LLC</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10585,12 +10465,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Sr. Android Network Engineer</t>
+          <t>Senior J2EE Developer</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10607,12 +10487,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Sr. Android Engineer - Team Lead</t>
+          <t>Սպասարկող - Մենեջեր</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>IMEX Group Co. LTD</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10622,12 +10502,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Sr. Android Engineer - Team Lead</t>
+          <t>Սպասարկող - Մենեջեր</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Մագիստրոս</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -10644,12 +10524,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Manager/People Operations</t>
+          <t>Առևտրային դիրքի Կառավարիչ</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DISQO</t>
+          <t>IMEX Group Co. LTD</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10659,12 +10539,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Manager/People Operations</t>
+          <t>Առևտրային դիրքի Կառավարիչ</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>3 - 5</t>
+          <t>1 - 3</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10673,709 +10553,6 @@
         </is>
       </c>
       <c r="G298" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Customer Agent (Farsi Speaking)</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Rika Group UK LLC</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Customer Agent (Farsi Speaking)</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Office IT Specialist</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Office IT Specialist</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> System Architect</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> System Architect</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>QA Specialist</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>QA Specialist</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Senior Java Developer</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>Senior Java Developer</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Senior Frontend Developer</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Senior Frontend Developer</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>JavaScript Developer</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>JavaScript Developer</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Database Administrator</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>Database Administrator</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Java Developer</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>IU Networks LLC</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Java Developer</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Մագիստրոս</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>GAT Soft LLC</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Հաճախորդների աջակցության մասնագետ (գիշերային հերթափոխ)</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>GAT Soft LLC</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Գրաֆիկական դիզայներ (գիշերային հերթափոխ)</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 1</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>ՍՄՄ մասնագետ</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>GAT Cutting LLC</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>ՍՄՄ մասնագետ</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Գրաֆիկ դիզայներ</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>GAT Cutting LLC</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>Գրաֆիկ դիզայներ</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Գնումների մասնագետ</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>GAT Cutting LLC</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>Գնումների մասնագետ</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Android Developer</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Daniam LLC</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Android Developer</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>iOS Developer</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Daniam LLC</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>iOS Developer</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>3 - 5</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Senior J2EE Developer</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Daniam LLC</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>Senior J2EE Developer</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Սպասարկող - Մենեջեր</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>IMEX Group Co. LTD</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>Սպասարկող - Մենեջեր</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Առևտրային դիրքի Կառավարիչ</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>IMEX Group Co. LTD</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>Առևտրային դիրքի Կառավարիչ</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>1 - 3</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Բակալավր</t>
-        </is>
-      </c>
-      <c r="G317" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
